--- a/03.指标管理/指标定义表-权益类V1.0.xlsx
+++ b/03.指标管理/指标定义表-权益类V1.0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="577">
   <si>
     <t>主题域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2770,12 +2770,20 @@
     <t>同一产品，投资人甲交易金额=N*投资人乙交易金额  （N=1、2、3…)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>当月，count（一个交易商的交易信息条数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个交易商，代收总计+待付总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2867,13 +2875,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2912,6 +2913,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
@@ -2924,6 +2932,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3096,7 +3111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3136,33 +3151,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3170,31 +3158,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3206,80 +3194,146 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3290,108 +3344,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3401,242 +3360,287 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4163,104 +4167,104 @@
       <c r="B2" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="68"/>
       <c r="B4" s="68"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="68"/>
       <c r="B6" s="68"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="68"/>
       <c r="B7" s="68"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="68"/>
@@ -4268,121 +4272,121 @@
       <c r="C8" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="68"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="68"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="68"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="68"/>
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
       <c r="B15" s="68"/>
       <c r="C15" s="69"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="68"/>
@@ -4390,520 +4394,520 @@
       <c r="C16" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="68"/>
       <c r="B18" s="68"/>
       <c r="C18" s="69"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="68"/>
       <c r="B19" s="68"/>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="68"/>
       <c r="B20" s="68"/>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="27" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
       <c r="B21" s="68"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="27" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="68"/>
       <c r="B22" s="68"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="27" t="s">
+      <c r="C22" s="73"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="68"/>
       <c r="B23" s="68"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="27" t="s">
+      <c r="C23" s="73"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="68"/>
       <c r="B24" s="68"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="27" t="s">
+      <c r="C24" s="73"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="68"/>
       <c r="B25" s="68"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27" t="s">
+      <c r="C25" s="73"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="69"/>
       <c r="B26" s="69"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="27" t="s">
+      <c r="C26" s="71"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="70" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="68"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25" t="s">
+      <c r="C28" s="71"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="68"/>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="68"/>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="68"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25" t="s">
+      <c r="C31" s="71"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="68"/>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="65"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="68"/>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="65"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="68"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25" t="s">
+      <c r="C34" s="71"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="68"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="69"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26" t="s">
+      <c r="C36" s="71"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
-      <c r="B37" s="64" t="s">
+      <c r="A37" s="73"/>
+      <c r="B37" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25" t="s">
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25" t="s">
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
       <c r="K39" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="64" t="s">
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25" t="s">
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25" t="s">
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25" t="s">
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25" t="s">
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25" t="s">
+      <c r="A46" s="73"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="65"/>
-      <c r="B47" s="64" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="11" t="s">
         <v>71</v>
       </c>
@@ -4911,18 +4915,18 @@
       <c r="H48" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
       <c r="K48" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="13" t="s">
         <v>76</v>
       </c>
@@ -4930,18 +4934,18 @@
       <c r="H49" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
       <c r="K49" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="13" t="s">
         <v>79</v>
       </c>
@@ -4949,20 +4953,20 @@
       <c r="H50" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
       <c r="K50" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="84" t="s">
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
       <c r="F51" s="11" t="s">
         <v>70</v>
       </c>
@@ -4970,16 +4974,16 @@
       <c r="H51" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="11" t="s">
         <v>71</v>
       </c>
@@ -4987,16 +4991,16 @@
       <c r="H52" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="13" t="s">
         <v>76</v>
       </c>
@@ -5004,16 +5008,16 @@
       <c r="H53" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
       <c r="F54" s="13" t="s">
         <v>79</v>
       </c>
@@ -5021,24 +5025,24 @@
       <c r="H54" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
       <c r="K54" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="66"/>
-      <c r="B55" s="66"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
       <c r="F55" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G55" s="25"/>
+      <c r="G55" s="16"/>
       <c r="H55" s="14" t="s">
         <v>82</v>
       </c>
@@ -5046,1373 +5050,1373 @@
         <v>83</v>
       </c>
       <c r="J55" s="12"/>
-      <c r="K55" s="25"/>
+      <c r="K55" s="16"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="84" t="s">
+      <c r="A56" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="84" t="s">
+      <c r="B56" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="84" t="s">
+      <c r="C56" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25" t="s">
+      <c r="G56" s="16"/>
+      <c r="H56" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25" t="s">
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25" t="s">
+      <c r="A58" s="75"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25" t="s">
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25" t="s">
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="26" t="s">
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25" t="s">
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="85"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="26" t="s">
+      <c r="A62" s="75"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25" t="s">
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25" t="s">
+      <c r="G62" s="16"/>
+      <c r="H62" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="85"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="64" t="s">
+      <c r="A63" s="75"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25" t="s">
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25" t="s">
+      <c r="G63" s="16"/>
+      <c r="H63" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="85"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25" t="s">
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="85"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="84" t="s">
+      <c r="A65" s="75"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25" t="s">
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="85"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="26" t="s">
+      <c r="A66" s="75"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25" t="s">
+      <c r="G66" s="16"/>
+      <c r="H66" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="85"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="84" t="s">
+      <c r="A67" s="75"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25" t="s">
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="85"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25" t="s">
+      <c r="A68" s="75"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="85"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="84" t="s">
+      <c r="A69" s="75"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25" t="s">
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="85"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25" t="s">
+      <c r="A70" s="75"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="85"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="64" t="s">
+      <c r="A71" s="75"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25" t="s">
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="85"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25" t="s">
+      <c r="A72" s="75"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="85"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="25" t="s">
+      <c r="A73" s="75"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25" t="s">
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="85"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="64" t="s">
+      <c r="A74" s="75"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25" t="s">
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="85"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25" t="s">
+      <c r="A75" s="75"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="85"/>
-      <c r="B76" s="85"/>
-      <c r="C76" s="64" t="s">
+      <c r="A76" s="75"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25" t="s">
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="85"/>
-      <c r="B77" s="85"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25" t="s">
+      <c r="A77" s="75"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="85"/>
-      <c r="B78" s="85"/>
-      <c r="C78" s="64" t="s">
+      <c r="A78" s="75"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25" t="s">
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="85"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25" t="s">
+      <c r="A79" s="75"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="85"/>
-      <c r="B80" s="84" t="s">
+      <c r="A80" s="75"/>
+      <c r="B80" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="C80" s="64" t="s">
+      <c r="C80" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25" t="s">
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="85"/>
-      <c r="B81" s="85"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25" t="s">
+      <c r="A81" s="75"/>
+      <c r="B81" s="75"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25" t="s">
+      <c r="G81" s="16"/>
+      <c r="H81" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="85"/>
-      <c r="B82" s="85"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25" t="s">
+      <c r="A82" s="75"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25" t="s">
+      <c r="G82" s="16"/>
+      <c r="H82" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="85"/>
-      <c r="B83" s="85"/>
-      <c r="C83" s="84" t="s">
+      <c r="A83" s="75"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="85"/>
-      <c r="B84" s="85"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25" t="s">
+      <c r="A84" s="75"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="85"/>
-      <c r="B85" s="85"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25" t="s">
+      <c r="A85" s="75"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="85"/>
-      <c r="B86" s="85"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25" t="s">
+      <c r="A86" s="75"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25" t="s">
+      <c r="G86" s="16"/>
+      <c r="H86" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="85"/>
-      <c r="B87" s="85"/>
-      <c r="C87" s="84" t="s">
+      <c r="A87" s="75"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25" t="s">
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="85"/>
-      <c r="B88" s="85"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25" t="s">
+      <c r="A88" s="75"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="85"/>
-      <c r="B89" s="85"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25" t="s">
+      <c r="A89" s="75"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="85"/>
-      <c r="B90" s="85"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25" t="s">
+      <c r="A90" s="75"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25" t="s">
+      <c r="G90" s="16"/>
+      <c r="H90" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="85"/>
-      <c r="B91" s="85"/>
-      <c r="C91" s="84" t="s">
+      <c r="A91" s="75"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25" t="s">
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="85"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25" t="s">
+      <c r="A92" s="75"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="85"/>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25" t="s">
+      <c r="A93" s="75"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="85"/>
-      <c r="B94" s="85"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25" t="s">
+      <c r="A94" s="75"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="25"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="85"/>
-      <c r="B95" s="85"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25" t="s">
+      <c r="A95" s="75"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="25"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="85"/>
-      <c r="B96" s="85"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25" t="s">
+      <c r="A96" s="75"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="25"/>
-      <c r="K96" s="25"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="85"/>
-      <c r="B97" s="85"/>
-      <c r="C97" s="85"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25" t="s">
+      <c r="A97" s="75"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="85"/>
-      <c r="B98" s="85"/>
-      <c r="C98" s="86"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25" t="s">
+      <c r="A98" s="75"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="25"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="85"/>
-      <c r="B99" s="85"/>
-      <c r="C99" s="25" t="s">
+      <c r="A99" s="75"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25" t="s">
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="85"/>
-      <c r="B100" s="85"/>
-      <c r="C100" s="84" t="s">
+      <c r="A100" s="75"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25" t="s">
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="85"/>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="26" t="s">
+      <c r="A101" s="75"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
-      <c r="K101" s="27" t="s">
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="18" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="85"/>
-      <c r="B102" s="85"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25" t="s">
+      <c r="A102" s="75"/>
+      <c r="B102" s="75"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="85"/>
-      <c r="B103" s="85"/>
-      <c r="C103" s="84" t="s">
+      <c r="A103" s="75"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25" t="s">
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="25"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="85"/>
-      <c r="B104" s="85"/>
-      <c r="C104" s="85"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25" t="s">
+      <c r="A104" s="75"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="85"/>
-      <c r="B105" s="85"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25" t="s">
+      <c r="A105" s="75"/>
+      <c r="B105" s="75"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
-      <c r="K105" s="25"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="85"/>
-      <c r="B106" s="85"/>
-      <c r="C106" s="84" t="s">
+      <c r="A106" s="75"/>
+      <c r="B106" s="75"/>
+      <c r="C106" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25" t="s">
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="25"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="85"/>
-      <c r="B107" s="85"/>
-      <c r="C107" s="85"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25" t="s">
+      <c r="A107" s="75"/>
+      <c r="B107" s="75"/>
+      <c r="C107" s="75"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="25"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="85"/>
-      <c r="B108" s="85"/>
-      <c r="C108" s="86"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25" t="s">
+      <c r="A108" s="75"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="25"/>
-      <c r="K108" s="25"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="85"/>
-      <c r="B109" s="86"/>
-      <c r="C109" s="50" t="s">
+      <c r="A109" s="75"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25" t="s">
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
-      <c r="K109" s="25"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
     </row>
     <row r="110" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="85"/>
-      <c r="B110" s="87" t="s">
+      <c r="A110" s="75"/>
+      <c r="B110" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="C110" s="87" t="s">
+      <c r="C110" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="28" t="s">
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G110" s="25"/>
-      <c r="H110" s="29" t="s">
+      <c r="G110" s="16"/>
+      <c r="H110" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25"/>
-      <c r="K110" s="27" t="s">
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="18" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="85"/>
-      <c r="B111" s="88"/>
-      <c r="C111" s="89"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="27" t="s">
+      <c r="A111" s="75"/>
+      <c r="B111" s="81"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25"/>
-      <c r="K111" s="25"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="85"/>
-      <c r="B112" s="88"/>
-      <c r="C112" s="27" t="s">
+      <c r="A112" s="75"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="27" t="s">
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G112" s="25"/>
-      <c r="H112" s="27" t="s">
+      <c r="G112" s="16"/>
+      <c r="H112" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="I112" s="25"/>
-      <c r="J112" s="25"/>
-      <c r="K112" s="25"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="85"/>
-      <c r="B113" s="88"/>
-      <c r="C113" s="27" t="s">
+      <c r="A113" s="75"/>
+      <c r="B113" s="81"/>
+      <c r="C113" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="27" t="s">
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="G113" s="25"/>
-      <c r="H113" s="27" t="s">
+      <c r="G113" s="16"/>
+      <c r="H113" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="25"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="85"/>
-      <c r="B114" s="88"/>
-      <c r="C114" s="27" t="s">
+      <c r="A114" s="75"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="27" t="s">
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="25"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="85"/>
-      <c r="B115" s="88"/>
-      <c r="C115" s="27" t="s">
+      <c r="A115" s="75"/>
+      <c r="B115" s="81"/>
+      <c r="C115" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="27" t="s">
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="25"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="85"/>
-      <c r="B116" s="88"/>
-      <c r="C116" s="87" t="s">
+      <c r="A116" s="75"/>
+      <c r="B116" s="81"/>
+      <c r="C116" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="28" t="s">
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="25"/>
-      <c r="K116" s="28" t="s">
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="85"/>
-      <c r="B117" s="88"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="28" t="s">
+      <c r="A117" s="75"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="25"/>
-      <c r="K117" s="25"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="16"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="85"/>
-      <c r="B118" s="88"/>
-      <c r="C118" s="27" t="s">
+      <c r="A118" s="75"/>
+      <c r="B118" s="81"/>
+      <c r="C118" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="27" t="s">
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="25"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="16"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="85"/>
-      <c r="B119" s="88"/>
-      <c r="C119" s="87" t="s">
+      <c r="A119" s="75"/>
+      <c r="B119" s="81"/>
+      <c r="C119" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="27" t="s">
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G119" s="25"/>
-      <c r="H119" s="30"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="27"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="18"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="85"/>
-      <c r="B120" s="88"/>
-      <c r="C120" s="88"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="27" t="s">
+      <c r="A120" s="75"/>
+      <c r="B120" s="81"/>
+      <c r="C120" s="81"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G120" s="25"/>
-      <c r="H120" s="30"/>
-      <c r="I120" s="25"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="27"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="18"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="85"/>
-      <c r="B121" s="88"/>
-      <c r="C121" s="89"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="27" t="s">
+      <c r="A121" s="75"/>
+      <c r="B121" s="81"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G121" s="25"/>
-      <c r="H121" s="30" t="s">
+      <c r="G121" s="16"/>
+      <c r="H121" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
-      <c r="K121" s="27"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="18"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="85"/>
-      <c r="B122" s="88"/>
-      <c r="C122" s="81" t="s">
+      <c r="A122" s="75"/>
+      <c r="B122" s="81"/>
+      <c r="C122" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="27" t="s">
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G122" s="25"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="25"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="85"/>
-      <c r="B123" s="88"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="27" t="s">
+      <c r="A123" s="75"/>
+      <c r="B123" s="81"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="25"/>
-      <c r="K123" s="25"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="85"/>
-      <c r="B124" s="88"/>
-      <c r="C124" s="83"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="27" t="s">
+      <c r="A124" s="75"/>
+      <c r="B124" s="81"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="G124" s="25"/>
-      <c r="H124" s="27" t="s">
+      <c r="G124" s="16"/>
+      <c r="H124" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="25"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="85"/>
-      <c r="B125" s="88"/>
-      <c r="C125" s="81" t="s">
+      <c r="A125" s="75"/>
+      <c r="B125" s="81"/>
+      <c r="C125" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="27" t="s">
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="25"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="85"/>
-      <c r="B126" s="88"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="27" t="s">
+      <c r="A126" s="75"/>
+      <c r="B126" s="81"/>
+      <c r="C126" s="77"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="25"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="25"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="85"/>
-      <c r="B127" s="88"/>
-      <c r="C127" s="83"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="27" t="s">
+      <c r="A127" s="75"/>
+      <c r="B127" s="81"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G127" s="25"/>
-      <c r="H127" s="27" t="s">
+      <c r="G127" s="16"/>
+      <c r="H127" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="I127" s="25"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
     </row>
     <row r="128" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="85"/>
-      <c r="B128" s="82" t="s">
+      <c r="A128" s="75"/>
+      <c r="B128" s="77" t="s">
         <v>415</v>
       </c>
-      <c r="C128" s="81" t="s">
+      <c r="C128" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="28" t="s">
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="25"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="85"/>
-      <c r="B129" s="82"/>
-      <c r="C129" s="83"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="28" t="s">
+      <c r="A129" s="75"/>
+      <c r="B129" s="77"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
-      <c r="J129" s="25"/>
-      <c r="K129" s="25"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="85"/>
-      <c r="B130" s="82"/>
-      <c r="C130" s="27" t="s">
+      <c r="A130" s="75"/>
+      <c r="B130" s="77"/>
+      <c r="C130" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="27" t="s">
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G130" s="25"/>
-      <c r="H130" s="27" t="s">
+      <c r="G130" s="16"/>
+      <c r="H130" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="25"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="85"/>
-      <c r="B131" s="82"/>
-      <c r="C131" s="27" t="s">
+      <c r="A131" s="75"/>
+      <c r="B131" s="77"/>
+      <c r="C131" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="27" t="s">
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="25"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="85"/>
-      <c r="B132" s="82"/>
-      <c r="C132" s="27" t="s">
+      <c r="A132" s="75"/>
+      <c r="B132" s="77"/>
+      <c r="C132" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="27" t="s">
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="G132" s="25"/>
-      <c r="H132" s="27" t="s">
+      <c r="G132" s="16"/>
+      <c r="H132" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="I132" s="25"/>
-      <c r="J132" s="25"/>
-      <c r="K132" s="25"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="85"/>
-      <c r="B133" s="83"/>
-      <c r="C133" s="27" t="s">
+      <c r="A133" s="75"/>
+      <c r="B133" s="78"/>
+      <c r="C133" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
-      <c r="K133" s="25"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="85"/>
-      <c r="B134" s="87" t="s">
+      <c r="A134" s="75"/>
+      <c r="B134" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="C134" s="81" t="s">
+      <c r="C134" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="27" t="s">
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
-      <c r="J134" s="25"/>
-      <c r="K134" s="25"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="85"/>
-      <c r="B135" s="88"/>
-      <c r="C135" s="82"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="27" t="s">
+      <c r="A135" s="75"/>
+      <c r="B135" s="81"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="25"/>
-      <c r="J135" s="25"/>
-      <c r="K135" s="25"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="85"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="83"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="27" t="s">
+      <c r="A136" s="75"/>
+      <c r="B136" s="81"/>
+      <c r="C136" s="78"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="25"/>
-      <c r="K136" s="25"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="86"/>
-      <c r="B137" s="89"/>
-      <c r="C137" s="27" t="s">
+      <c r="A137" s="76"/>
+      <c r="B137" s="80"/>
+      <c r="C137" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
-      <c r="F137" s="27" t="s">
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
-      <c r="J137" s="25"/>
-      <c r="K137" s="25"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="70" t="s">
+      <c r="A138" s="83" t="s">
         <v>416</v>
       </c>
-      <c r="B138" s="96" t="s">
+      <c r="B138" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="C138" s="93" t="s">
+      <c r="C138" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D138" s="61" t="s">
+      <c r="D138" s="53" t="s">
         <v>240</v>
       </c>
       <c r="F138" s="11" t="s">
@@ -6421,2069 +6425,2078 @@
       <c r="H138" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I138" s="40"/>
-      <c r="J138" s="40"/>
+      <c r="I138" s="31"/>
+      <c r="J138" s="31"/>
       <c r="K138" s="1"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="71"/>
-      <c r="B139" s="97"/>
-      <c r="C139" s="94"/>
-      <c r="D139" s="63"/>
+      <c r="A139" s="84"/>
+      <c r="B139" s="49"/>
+      <c r="C139" s="51"/>
+      <c r="D139" s="54"/>
       <c r="F139" s="11" t="s">
         <v>266</v>
       </c>
       <c r="H139" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I139" s="40"/>
-      <c r="J139" s="40"/>
+      <c r="I139" s="31"/>
+      <c r="J139" s="31"/>
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="71"/>
-      <c r="B140" s="97"/>
-      <c r="C140" s="94"/>
+      <c r="A140" s="84"/>
+      <c r="B140" s="49"/>
+      <c r="C140" s="51"/>
       <c r="D140" s="15" t="s">
         <v>241</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="H140" s="41"/>
-      <c r="I140" s="40"/>
-      <c r="J140" s="40"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="31"/>
       <c r="K140" s="1"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="71"/>
-      <c r="B141" s="97"/>
-      <c r="C141" s="94"/>
-      <c r="D141" s="61" t="s">
+      <c r="A141" s="84"/>
+      <c r="B141" s="49"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="53" t="s">
         <v>242</v>
       </c>
       <c r="F141" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="H141" s="41"/>
-      <c r="I141" s="40"/>
-      <c r="J141" s="40"/>
+      <c r="H141" s="32"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="31"/>
       <c r="K141" s="1"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="71"/>
-      <c r="B142" s="97"/>
-      <c r="C142" s="94"/>
-      <c r="D142" s="62"/>
+      <c r="A142" s="84"/>
+      <c r="B142" s="49"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="55"/>
       <c r="F142" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="H142" s="41"/>
-      <c r="I142" s="40"/>
-      <c r="J142" s="40"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="31"/>
+      <c r="J142" s="31"/>
       <c r="K142" s="1"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="71"/>
-      <c r="B143" s="97"/>
-      <c r="C143" s="94"/>
-      <c r="D143" s="63"/>
+      <c r="A143" s="84"/>
+      <c r="B143" s="49"/>
+      <c r="C143" s="51"/>
+      <c r="D143" s="54"/>
       <c r="F143" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="H143" s="41"/>
-      <c r="I143" s="40"/>
-      <c r="J143" s="40"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="31"/>
+      <c r="J143" s="31"/>
       <c r="K143" s="1"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="71"/>
-      <c r="B144" s="97"/>
-      <c r="C144" s="94"/>
-      <c r="D144" s="61" t="s">
+      <c r="A144" s="84"/>
+      <c r="B144" s="49"/>
+      <c r="C144" s="51"/>
+      <c r="D144" s="53" t="s">
         <v>243</v>
       </c>
       <c r="F144" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="H144" s="42" t="s">
+      <c r="H144" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="I144" s="40"/>
-      <c r="J144" s="40"/>
+      <c r="I144" s="31"/>
+      <c r="J144" s="31"/>
       <c r="K144" s="1"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="71"/>
-      <c r="B145" s="97"/>
-      <c r="C145" s="94"/>
-      <c r="D145" s="63"/>
+      <c r="A145" s="84"/>
+      <c r="B145" s="49"/>
+      <c r="C145" s="51"/>
+      <c r="D145" s="54"/>
       <c r="F145" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H145" s="41"/>
-      <c r="I145" s="40"/>
-      <c r="J145" s="40"/>
-      <c r="K145" s="43"/>
+      <c r="H145" s="32"/>
+      <c r="I145" s="31"/>
+      <c r="J145" s="31"/>
+      <c r="K145" s="34"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="71"/>
-      <c r="B146" s="97"/>
-      <c r="C146" s="94"/>
-      <c r="D146" s="61" t="s">
+      <c r="A146" s="84"/>
+      <c r="B146" s="49"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="53" t="s">
         <v>244</v>
       </c>
       <c r="F146" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="H146" s="41"/>
-      <c r="I146" s="40"/>
-      <c r="J146" s="40"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
       <c r="K146" s="1"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="71"/>
-      <c r="B147" s="97"/>
-      <c r="C147" s="94"/>
-      <c r="D147" s="63"/>
+      <c r="A147" s="84"/>
+      <c r="B147" s="49"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="54"/>
       <c r="F147" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H147" s="41"/>
-      <c r="I147" s="44" t="s">
+      <c r="H147" s="32"/>
+      <c r="I147" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="J147" s="44"/>
+      <c r="J147" s="35"/>
       <c r="K147" s="1"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="71"/>
-      <c r="B148" s="97"/>
-      <c r="C148" s="94"/>
-      <c r="D148" s="61" t="s">
+      <c r="A148" s="84"/>
+      <c r="B148" s="49"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="53" t="s">
         <v>245</v>
       </c>
       <c r="F148" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="H148" s="41"/>
-      <c r="I148" s="44"/>
-      <c r="J148" s="44"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="35"/>
+      <c r="J148" s="35"/>
       <c r="K148" s="1"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="71"/>
-      <c r="B149" s="97"/>
-      <c r="C149" s="94"/>
-      <c r="D149" s="62"/>
+      <c r="A149" s="84"/>
+      <c r="B149" s="49"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="55"/>
       <c r="F149" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="H149" s="41"/>
-      <c r="I149" s="44"/>
-      <c r="J149" s="44"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="35"/>
+      <c r="J149" s="35"/>
       <c r="K149" s="1"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="71"/>
-      <c r="B150" s="97"/>
-      <c r="C150" s="94"/>
-      <c r="D150" s="62"/>
+      <c r="A150" s="84"/>
+      <c r="B150" s="49"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="55"/>
       <c r="F150" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="H150" s="41"/>
-      <c r="I150" s="44"/>
-      <c r="J150" s="44"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="35"/>
+      <c r="J150" s="35"/>
       <c r="K150" s="1"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="71"/>
-      <c r="B151" s="97"/>
-      <c r="C151" s="94"/>
-      <c r="D151" s="62"/>
+      <c r="A151" s="84"/>
+      <c r="B151" s="49"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="55"/>
       <c r="F151" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="H151" s="41"/>
-      <c r="I151" s="44"/>
-      <c r="J151" s="44"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="35"/>
+      <c r="J151" s="35"/>
       <c r="K151" s="1"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="71"/>
-      <c r="B152" s="97"/>
-      <c r="C152" s="94"/>
-      <c r="D152" s="62"/>
+      <c r="A152" s="84"/>
+      <c r="B152" s="49"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="55"/>
       <c r="F152" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="H152" s="41"/>
-      <c r="I152" s="44"/>
-      <c r="J152" s="44"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="35"/>
+      <c r="J152" s="35"/>
       <c r="K152" s="1"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="71"/>
-      <c r="B153" s="97"/>
-      <c r="C153" s="95"/>
-      <c r="D153" s="63"/>
+      <c r="A153" s="84"/>
+      <c r="B153" s="49"/>
+      <c r="C153" s="52"/>
+      <c r="D153" s="54"/>
       <c r="F153" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H153" s="41"/>
-      <c r="I153" s="44"/>
-      <c r="J153" s="44"/>
-      <c r="K153" s="45"/>
+      <c r="H153" s="32"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="35"/>
+      <c r="K153" s="36"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="71"/>
-      <c r="B154" s="97"/>
-      <c r="C154" s="98" t="s">
+      <c r="A154" s="84"/>
+      <c r="B154" s="49"/>
+      <c r="C154" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D154" s="61" t="s">
+      <c r="D154" s="53" t="s">
         <v>247</v>
       </c>
       <c r="F154" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H154" s="41"/>
-      <c r="I154" s="40"/>
-      <c r="J154" s="40"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="31"/>
       <c r="K154" s="1"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="71"/>
-      <c r="B155" s="97"/>
-      <c r="C155" s="99"/>
-      <c r="D155" s="62"/>
+      <c r="A155" s="84"/>
+      <c r="B155" s="49"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="55"/>
       <c r="F155" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H155" s="41"/>
-      <c r="I155" s="40"/>
-      <c r="J155" s="40"/>
+      <c r="H155" s="32"/>
+      <c r="I155" s="31"/>
+      <c r="J155" s="31"/>
       <c r="K155" s="1"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="71"/>
-      <c r="B156" s="97"/>
-      <c r="C156" s="99"/>
-      <c r="D156" s="62"/>
+      <c r="A156" s="84"/>
+      <c r="B156" s="49"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="55"/>
       <c r="F156" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="H156" s="41"/>
-      <c r="I156" s="40"/>
-      <c r="J156" s="40"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="31"/>
+      <c r="J156" s="31"/>
       <c r="K156" s="1"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="71"/>
-      <c r="B157" s="97"/>
-      <c r="C157" s="99"/>
-      <c r="D157" s="62"/>
+      <c r="A157" s="84"/>
+      <c r="B157" s="49"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="55"/>
       <c r="F157" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="H157" s="41"/>
-      <c r="I157" s="40"/>
-      <c r="J157" s="40"/>
+      <c r="H157" s="32"/>
+      <c r="I157" s="31"/>
+      <c r="J157" s="31"/>
       <c r="K157" s="1"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="71"/>
-      <c r="B158" s="97"/>
-      <c r="C158" s="99"/>
-      <c r="D158" s="62"/>
-      <c r="F158" s="35" t="s">
+      <c r="A158" s="84"/>
+      <c r="B158" s="49"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="55"/>
+      <c r="F158" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="H158" s="41"/>
-      <c r="I158" s="40"/>
-      <c r="J158" s="40"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="31"/>
+      <c r="J158" s="31"/>
       <c r="K158" s="1"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="71"/>
-      <c r="B159" s="97"/>
-      <c r="C159" s="99"/>
-      <c r="D159" s="62"/>
-      <c r="F159" s="35" t="s">
+      <c r="A159" s="84"/>
+      <c r="B159" s="49"/>
+      <c r="C159" s="57"/>
+      <c r="D159" s="55"/>
+      <c r="F159" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="H159" s="41"/>
-      <c r="I159" s="40"/>
-      <c r="J159" s="40"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="31"/>
+      <c r="J159" s="31"/>
       <c r="K159" s="1"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="71"/>
-      <c r="B160" s="97"/>
-      <c r="C160" s="99"/>
-      <c r="D160" s="62"/>
-      <c r="F160" s="35" t="s">
+      <c r="A160" s="84"/>
+      <c r="B160" s="49"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="55"/>
+      <c r="F160" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="H160" s="41"/>
-      <c r="I160" s="40"/>
-      <c r="J160" s="40"/>
+      <c r="H160" s="32"/>
+      <c r="I160" s="31"/>
+      <c r="J160" s="31"/>
       <c r="K160" s="1"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="71"/>
-      <c r="B161" s="97"/>
-      <c r="C161" s="99"/>
-      <c r="D161" s="62"/>
+      <c r="A161" s="84"/>
+      <c r="B161" s="49"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="55"/>
       <c r="F161" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="H161" s="41"/>
-      <c r="I161" s="40"/>
-      <c r="J161" s="40"/>
+      <c r="H161" s="32"/>
+      <c r="I161" s="31"/>
+      <c r="J161" s="31"/>
       <c r="K161" s="1"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="71"/>
-      <c r="B162" s="97"/>
-      <c r="C162" s="99"/>
-      <c r="D162" s="62"/>
+      <c r="A162" s="84"/>
+      <c r="B162" s="49"/>
+      <c r="C162" s="57"/>
+      <c r="D162" s="55"/>
       <c r="F162" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="H162" s="41"/>
-      <c r="I162" s="40"/>
-      <c r="J162" s="40"/>
+      <c r="H162" s="32"/>
+      <c r="I162" s="31"/>
+      <c r="J162" s="31"/>
       <c r="K162" s="1"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="71"/>
-      <c r="B163" s="97"/>
-      <c r="C163" s="99"/>
-      <c r="D163" s="62"/>
+      <c r="A163" s="84"/>
+      <c r="B163" s="49"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="55"/>
       <c r="F163" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="H163" s="41"/>
-      <c r="I163" s="40"/>
-      <c r="J163" s="40"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="31"/>
+      <c r="J163" s="31"/>
       <c r="K163" s="1"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="71"/>
-      <c r="B164" s="97"/>
-      <c r="C164" s="99"/>
-      <c r="D164" s="62"/>
+      <c r="A164" s="84"/>
+      <c r="B164" s="49"/>
+      <c r="C164" s="57"/>
+      <c r="D164" s="55"/>
       <c r="F164" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="H164" s="41"/>
-      <c r="I164" s="40"/>
-      <c r="J164" s="40"/>
+      <c r="H164" s="32"/>
+      <c r="I164" s="31"/>
+      <c r="J164" s="31"/>
       <c r="K164" s="1"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="71"/>
-      <c r="B165" s="97"/>
-      <c r="C165" s="99"/>
-      <c r="D165" s="62"/>
+      <c r="A165" s="84"/>
+      <c r="B165" s="49"/>
+      <c r="C165" s="57"/>
+      <c r="D165" s="55"/>
       <c r="F165" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="H165" s="41"/>
-      <c r="I165" s="40"/>
-      <c r="J165" s="40"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="31"/>
+      <c r="J165" s="31"/>
       <c r="K165" s="1"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="71"/>
-      <c r="B166" s="97"/>
-      <c r="C166" s="99"/>
-      <c r="D166" s="62"/>
+      <c r="A166" s="84"/>
+      <c r="B166" s="49"/>
+      <c r="C166" s="57"/>
+      <c r="D166" s="55"/>
       <c r="F166" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="H166" s="41"/>
-      <c r="I166" s="40"/>
-      <c r="J166" s="40"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="31"/>
+      <c r="J166" s="31"/>
       <c r="K166" s="1"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="71"/>
-      <c r="B167" s="97"/>
-      <c r="C167" s="99"/>
-      <c r="D167" s="62"/>
+      <c r="A167" s="84"/>
+      <c r="B167" s="49"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="55"/>
       <c r="F167" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="H167" s="41"/>
-      <c r="I167" s="40"/>
-      <c r="J167" s="40"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="31"/>
+      <c r="J167" s="31"/>
       <c r="K167" s="1"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="71"/>
-      <c r="B168" s="97"/>
-      <c r="C168" s="99"/>
-      <c r="D168" s="62"/>
+      <c r="A168" s="84"/>
+      <c r="B168" s="49"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="55"/>
       <c r="F168" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="H168" s="41"/>
-      <c r="I168" s="40"/>
-      <c r="J168" s="40"/>
+      <c r="H168" s="32"/>
+      <c r="I168" s="31"/>
+      <c r="J168" s="31"/>
       <c r="K168" s="1"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="71"/>
-      <c r="B169" s="97"/>
-      <c r="C169" s="99"/>
-      <c r="D169" s="62"/>
+      <c r="A169" s="84"/>
+      <c r="B169" s="49"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="55"/>
       <c r="F169" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="H169" s="41"/>
-      <c r="I169" s="40"/>
-      <c r="J169" s="40"/>
+      <c r="H169" s="32"/>
+      <c r="I169" s="31"/>
+      <c r="J169" s="31"/>
       <c r="K169" s="1"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="71"/>
-      <c r="B170" s="97"/>
-      <c r="C170" s="99"/>
-      <c r="D170" s="62"/>
+      <c r="A170" s="84"/>
+      <c r="B170" s="49"/>
+      <c r="C170" s="57"/>
+      <c r="D170" s="55"/>
       <c r="F170" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="H170" s="41"/>
-      <c r="I170" s="40"/>
-      <c r="J170" s="40"/>
+      <c r="H170" s="32"/>
+      <c r="I170" s="31"/>
+      <c r="J170" s="31"/>
       <c r="K170" s="1"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="71"/>
-      <c r="B171" s="97"/>
-      <c r="C171" s="99"/>
-      <c r="D171" s="62"/>
+      <c r="A171" s="84"/>
+      <c r="B171" s="49"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="55"/>
       <c r="F171" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="H171" s="41"/>
-      <c r="I171" s="40"/>
-      <c r="J171" s="40"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="31"/>
+      <c r="J171" s="31"/>
       <c r="K171" s="1"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="71"/>
-      <c r="B172" s="97"/>
-      <c r="C172" s="99"/>
-      <c r="D172" s="62"/>
+      <c r="A172" s="84"/>
+      <c r="B172" s="49"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="55"/>
       <c r="F172" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="H172" s="41"/>
-      <c r="I172" s="40"/>
-      <c r="J172" s="40"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="31"/>
+      <c r="J172" s="31"/>
       <c r="K172" s="1"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="71"/>
-      <c r="B173" s="97"/>
-      <c r="C173" s="99"/>
-      <c r="D173" s="62"/>
+      <c r="A173" s="84"/>
+      <c r="B173" s="49"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="55"/>
       <c r="F173" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="H173" s="41"/>
-      <c r="I173" s="40"/>
-      <c r="J173" s="40"/>
+      <c r="H173" s="32"/>
+      <c r="I173" s="31"/>
+      <c r="J173" s="31"/>
       <c r="K173" s="1"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="71"/>
-      <c r="B174" s="97"/>
-      <c r="C174" s="99"/>
-      <c r="D174" s="62"/>
+      <c r="A174" s="84"/>
+      <c r="B174" s="49"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="55"/>
       <c r="F174" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="H174" s="41"/>
-      <c r="I174" s="40"/>
-      <c r="J174" s="40"/>
+      <c r="H174" s="32"/>
+      <c r="I174" s="31"/>
+      <c r="J174" s="31"/>
       <c r="K174" s="1"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="71"/>
-      <c r="B175" s="97"/>
-      <c r="C175" s="99"/>
-      <c r="D175" s="62"/>
+      <c r="A175" s="84"/>
+      <c r="B175" s="49"/>
+      <c r="C175" s="57"/>
+      <c r="D175" s="55"/>
       <c r="F175" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="H175" s="41"/>
-      <c r="I175" s="40"/>
-      <c r="J175" s="40"/>
+      <c r="H175" s="32"/>
+      <c r="I175" s="31"/>
+      <c r="J175" s="31"/>
       <c r="K175" s="1"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="71"/>
-      <c r="B176" s="97"/>
-      <c r="C176" s="99"/>
-      <c r="D176" s="62"/>
+      <c r="A176" s="84"/>
+      <c r="B176" s="49"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="55"/>
       <c r="F176" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="H176" s="41"/>
-      <c r="I176" s="40"/>
-      <c r="J176" s="40"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="31"/>
+      <c r="J176" s="31"/>
       <c r="K176" s="1"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="71"/>
-      <c r="B177" s="97"/>
-      <c r="C177" s="99"/>
-      <c r="D177" s="62"/>
+      <c r="A177" s="84"/>
+      <c r="B177" s="49"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="55"/>
       <c r="F177" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="H177" s="41"/>
-      <c r="I177" s="40"/>
-      <c r="J177" s="40"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="31"/>
+      <c r="J177" s="31"/>
       <c r="K177" s="1"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="71"/>
-      <c r="B178" s="97"/>
-      <c r="C178" s="99"/>
-      <c r="D178" s="62"/>
+      <c r="A178" s="84"/>
+      <c r="B178" s="49"/>
+      <c r="C178" s="57"/>
+      <c r="D178" s="55"/>
       <c r="F178" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="H178" s="41"/>
-      <c r="I178" s="40"/>
-      <c r="J178" s="40"/>
+      <c r="H178" s="32"/>
+      <c r="I178" s="31"/>
+      <c r="J178" s="31"/>
       <c r="K178" s="1"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="71"/>
-      <c r="B179" s="97"/>
-      <c r="C179" s="99"/>
-      <c r="D179" s="62"/>
+      <c r="A179" s="84"/>
+      <c r="B179" s="49"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="55"/>
       <c r="F179" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="H179" s="41"/>
-      <c r="I179" s="40"/>
-      <c r="J179" s="40"/>
+      <c r="H179" s="32"/>
+      <c r="I179" s="31"/>
+      <c r="J179" s="31"/>
       <c r="K179" s="1"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="71"/>
-      <c r="B180" s="97"/>
-      <c r="C180" s="99"/>
-      <c r="D180" s="62"/>
+      <c r="A180" s="84"/>
+      <c r="B180" s="49"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="55"/>
       <c r="F180" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H180" s="41"/>
-      <c r="I180" s="40"/>
-      <c r="J180" s="40"/>
+      <c r="H180" s="32"/>
+      <c r="I180" s="31"/>
+      <c r="J180" s="31"/>
       <c r="K180" s="1"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="71"/>
-      <c r="B181" s="97"/>
-      <c r="C181" s="99"/>
-      <c r="D181" s="62"/>
+      <c r="A181" s="84"/>
+      <c r="B181" s="49"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="55"/>
       <c r="F181" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="H181" s="41"/>
-      <c r="I181" s="40"/>
-      <c r="J181" s="40"/>
+      <c r="H181" s="32"/>
+      <c r="I181" s="31"/>
+      <c r="J181" s="31"/>
       <c r="K181" s="1"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="71"/>
-      <c r="B182" s="97"/>
-      <c r="C182" s="99"/>
-      <c r="D182" s="62"/>
+      <c r="A182" s="84"/>
+      <c r="B182" s="49"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="55"/>
       <c r="F182" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="H182" s="41"/>
-      <c r="I182" s="40"/>
-      <c r="J182" s="40"/>
+      <c r="H182" s="32"/>
+      <c r="I182" s="31"/>
+      <c r="J182" s="31"/>
       <c r="K182" s="1"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="71"/>
-      <c r="B183" s="97"/>
-      <c r="C183" s="99"/>
-      <c r="D183" s="62"/>
+      <c r="A183" s="84"/>
+      <c r="B183" s="49"/>
+      <c r="C183" s="57"/>
+      <c r="D183" s="55"/>
       <c r="F183" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="H183" s="41"/>
-      <c r="I183" s="40"/>
-      <c r="J183" s="40"/>
+      <c r="H183" s="32"/>
+      <c r="I183" s="31"/>
+      <c r="J183" s="31"/>
       <c r="K183" s="1"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="71"/>
-      <c r="B184" s="97"/>
-      <c r="C184" s="100"/>
-      <c r="D184" s="63"/>
+      <c r="A184" s="84"/>
+      <c r="B184" s="49"/>
+      <c r="C184" s="58"/>
+      <c r="D184" s="54"/>
       <c r="F184" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="H184" s="41"/>
-      <c r="I184" s="40"/>
-      <c r="J184" s="40"/>
+      <c r="H184" s="32"/>
+      <c r="I184" s="31"/>
+      <c r="J184" s="31"/>
       <c r="K184" s="1"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="71"/>
-      <c r="B185" s="97"/>
-      <c r="C185" s="98" t="s">
+      <c r="A185" s="84"/>
+      <c r="B185" s="49"/>
+      <c r="C185" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="D185" s="61" t="s">
+      <c r="D185" s="53" t="s">
         <v>249</v>
       </c>
       <c r="F185" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="H185" s="41"/>
-      <c r="I185" s="40"/>
-      <c r="J185" s="40"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="31"/>
+      <c r="J185" s="31"/>
       <c r="K185" s="1"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="71"/>
-      <c r="B186" s="97"/>
-      <c r="C186" s="99"/>
-      <c r="D186" s="62"/>
+      <c r="A186" s="84"/>
+      <c r="B186" s="49"/>
+      <c r="C186" s="57"/>
+      <c r="D186" s="55"/>
       <c r="F186" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H186" s="41"/>
-      <c r="I186" s="40"/>
-      <c r="J186" s="40"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="31"/>
+      <c r="J186" s="31"/>
       <c r="K186" s="1"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="71"/>
-      <c r="B187" s="97"/>
-      <c r="C187" s="99"/>
-      <c r="D187" s="62"/>
+      <c r="A187" s="84"/>
+      <c r="B187" s="49"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="55"/>
       <c r="F187" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="H187" s="41"/>
-      <c r="I187" s="40"/>
-      <c r="J187" s="40"/>
+      <c r="H187" s="32"/>
+      <c r="I187" s="31"/>
+      <c r="J187" s="31"/>
       <c r="K187" s="1"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="71"/>
-      <c r="B188" s="97"/>
-      <c r="C188" s="99"/>
-      <c r="D188" s="62"/>
+      <c r="A188" s="84"/>
+      <c r="B188" s="49"/>
+      <c r="C188" s="57"/>
+      <c r="D188" s="55"/>
       <c r="F188" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H188" s="41"/>
-      <c r="I188" s="40"/>
-      <c r="J188" s="40"/>
+      <c r="H188" s="32"/>
+      <c r="I188" s="31"/>
+      <c r="J188" s="31"/>
       <c r="K188" s="1"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="71"/>
-      <c r="B189" s="97"/>
-      <c r="C189" s="99"/>
-      <c r="D189" s="62"/>
+      <c r="A189" s="84"/>
+      <c r="B189" s="49"/>
+      <c r="C189" s="57"/>
+      <c r="D189" s="55"/>
       <c r="F189" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="H189" s="41"/>
-      <c r="I189" s="40"/>
-      <c r="J189" s="40"/>
+      <c r="H189" s="32"/>
+      <c r="I189" s="31"/>
+      <c r="J189" s="31"/>
       <c r="K189" s="1"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="71"/>
-      <c r="B190" s="97"/>
-      <c r="C190" s="99"/>
-      <c r="D190" s="62"/>
+      <c r="A190" s="84"/>
+      <c r="B190" s="49"/>
+      <c r="C190" s="57"/>
+      <c r="D190" s="55"/>
       <c r="F190" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="H190" s="41"/>
-      <c r="I190" s="40"/>
-      <c r="J190" s="40"/>
+      <c r="H190" s="32"/>
+      <c r="I190" s="31"/>
+      <c r="J190" s="31"/>
       <c r="K190" s="1"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="71"/>
-      <c r="B191" s="97"/>
-      <c r="C191" s="99"/>
-      <c r="D191" s="62"/>
+      <c r="A191" s="84"/>
+      <c r="B191" s="49"/>
+      <c r="C191" s="57"/>
+      <c r="D191" s="55"/>
       <c r="F191" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="H191" s="41"/>
-      <c r="I191" s="40"/>
-      <c r="J191" s="40"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="31"/>
+      <c r="J191" s="31"/>
       <c r="K191" s="1"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="71"/>
-      <c r="B192" s="97"/>
-      <c r="C192" s="99"/>
-      <c r="D192" s="62"/>
+      <c r="A192" s="84"/>
+      <c r="B192" s="49"/>
+      <c r="C192" s="57"/>
+      <c r="D192" s="55"/>
       <c r="F192" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="H192" s="41"/>
-      <c r="I192" s="40"/>
-      <c r="J192" s="40"/>
+      <c r="H192" s="32"/>
+      <c r="I192" s="31"/>
+      <c r="J192" s="31"/>
       <c r="K192" s="1"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" s="71"/>
-      <c r="B193" s="97"/>
-      <c r="C193" s="99"/>
-      <c r="D193" s="62"/>
+      <c r="A193" s="84"/>
+      <c r="B193" s="49"/>
+      <c r="C193" s="57"/>
+      <c r="D193" s="55"/>
       <c r="F193" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H193" s="41"/>
-      <c r="I193" s="40"/>
-      <c r="J193" s="40"/>
+      <c r="H193" s="32"/>
+      <c r="I193" s="31"/>
+      <c r="J193" s="31"/>
       <c r="K193" s="1"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" s="71"/>
-      <c r="B194" s="97"/>
-      <c r="C194" s="99"/>
-      <c r="D194" s="62"/>
+      <c r="A194" s="84"/>
+      <c r="B194" s="49"/>
+      <c r="C194" s="57"/>
+      <c r="D194" s="55"/>
       <c r="F194" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="H194" s="41"/>
-      <c r="I194" s="40"/>
-      <c r="J194" s="40"/>
+      <c r="H194" s="32"/>
+      <c r="I194" s="31"/>
+      <c r="J194" s="31"/>
       <c r="K194" s="1"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" s="71"/>
-      <c r="B195" s="97"/>
-      <c r="C195" s="99"/>
-      <c r="D195" s="62"/>
+      <c r="A195" s="84"/>
+      <c r="B195" s="49"/>
+      <c r="C195" s="57"/>
+      <c r="D195" s="55"/>
       <c r="F195" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="H195" s="41"/>
-      <c r="I195" s="40"/>
-      <c r="J195" s="40"/>
+      <c r="H195" s="32"/>
+      <c r="I195" s="31"/>
+      <c r="J195" s="31"/>
       <c r="K195" s="1"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196" s="71"/>
-      <c r="B196" s="97"/>
-      <c r="C196" s="99"/>
-      <c r="D196" s="62"/>
+      <c r="A196" s="84"/>
+      <c r="B196" s="49"/>
+      <c r="C196" s="57"/>
+      <c r="D196" s="55"/>
       <c r="F196" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="H196" s="41"/>
-      <c r="I196" s="40"/>
-      <c r="J196" s="40"/>
+      <c r="H196" s="32"/>
+      <c r="I196" s="31"/>
+      <c r="J196" s="31"/>
       <c r="K196" s="1"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197" s="71"/>
-      <c r="B197" s="97"/>
-      <c r="C197" s="99"/>
-      <c r="D197" s="62"/>
+      <c r="A197" s="84"/>
+      <c r="B197" s="49"/>
+      <c r="C197" s="57"/>
+      <c r="D197" s="55"/>
       <c r="F197" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="H197" s="41"/>
-      <c r="I197" s="40"/>
-      <c r="J197" s="40"/>
+      <c r="H197" s="32"/>
+      <c r="I197" s="31"/>
+      <c r="J197" s="31"/>
       <c r="K197" s="1"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" s="71"/>
-      <c r="B198" s="97"/>
-      <c r="C198" s="99"/>
-      <c r="D198" s="62"/>
+      <c r="A198" s="84"/>
+      <c r="B198" s="49"/>
+      <c r="C198" s="57"/>
+      <c r="D198" s="55"/>
       <c r="F198" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="H198" s="41"/>
-      <c r="I198" s="40"/>
-      <c r="J198" s="40"/>
+      <c r="H198" s="32"/>
+      <c r="I198" s="31"/>
+      <c r="J198" s="31"/>
       <c r="K198" s="1"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" s="71"/>
-      <c r="B199" s="97"/>
-      <c r="C199" s="99"/>
-      <c r="D199" s="62"/>
+      <c r="A199" s="84"/>
+      <c r="B199" s="49"/>
+      <c r="C199" s="57"/>
+      <c r="D199" s="55"/>
       <c r="F199" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="H199" s="41"/>
-      <c r="I199" s="40"/>
-      <c r="J199" s="40"/>
+      <c r="H199" s="32"/>
+      <c r="I199" s="31"/>
+      <c r="J199" s="31"/>
       <c r="K199" s="1"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" s="71"/>
-      <c r="B200" s="97"/>
-      <c r="C200" s="99"/>
-      <c r="D200" s="62"/>
+      <c r="A200" s="84"/>
+      <c r="B200" s="49"/>
+      <c r="C200" s="57"/>
+      <c r="D200" s="55"/>
       <c r="F200" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="H200" s="41"/>
-      <c r="I200" s="40"/>
-      <c r="J200" s="40"/>
+      <c r="H200" s="32"/>
+      <c r="I200" s="31"/>
+      <c r="J200" s="31"/>
       <c r="K200" s="1"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" s="71"/>
-      <c r="B201" s="97"/>
-      <c r="C201" s="100"/>
-      <c r="D201" s="63"/>
+      <c r="A201" s="84"/>
+      <c r="B201" s="49"/>
+      <c r="C201" s="58"/>
+      <c r="D201" s="54"/>
       <c r="F201" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="H201" s="41"/>
-      <c r="I201" s="40"/>
-      <c r="J201" s="40"/>
+      <c r="H201" s="32"/>
+      <c r="I201" s="31"/>
+      <c r="J201" s="31"/>
       <c r="K201" s="1"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" s="71"/>
-      <c r="B202" s="97"/>
-      <c r="C202" s="93" t="s">
+      <c r="A202" s="84"/>
+      <c r="B202" s="49"/>
+      <c r="C202" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="D202" s="61" t="s">
+      <c r="D202" s="53" t="s">
         <v>251</v>
       </c>
       <c r="F202" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="H202" s="41"/>
-      <c r="I202" s="40"/>
-      <c r="J202" s="40"/>
+      <c r="H202" s="32"/>
+      <c r="I202" s="31"/>
+      <c r="J202" s="31"/>
       <c r="K202" s="1"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="71"/>
-      <c r="B203" s="97"/>
-      <c r="C203" s="94"/>
-      <c r="D203" s="62"/>
+      <c r="A203" s="84"/>
+      <c r="B203" s="49"/>
+      <c r="C203" s="51"/>
+      <c r="D203" s="55"/>
       <c r="F203" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="H203" s="41"/>
-      <c r="I203" s="40"/>
-      <c r="J203" s="40"/>
+      <c r="H203" s="32"/>
+      <c r="I203" s="31"/>
+      <c r="J203" s="31"/>
       <c r="K203" s="1"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" s="71"/>
-      <c r="B204" s="97"/>
-      <c r="C204" s="94"/>
-      <c r="D204" s="62"/>
+      <c r="A204" s="84"/>
+      <c r="B204" s="49"/>
+      <c r="C204" s="51"/>
+      <c r="D204" s="55"/>
       <c r="F204" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="H204" s="41"/>
-      <c r="I204" s="41"/>
-      <c r="J204" s="41"/>
+      <c r="H204" s="32"/>
+      <c r="I204" s="32"/>
+      <c r="J204" s="32"/>
       <c r="K204" s="1"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" s="71"/>
-      <c r="B205" s="97"/>
-      <c r="C205" s="94"/>
-      <c r="D205" s="62"/>
+      <c r="A205" s="84"/>
+      <c r="B205" s="49"/>
+      <c r="C205" s="51"/>
+      <c r="D205" s="55"/>
       <c r="F205" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="H205" s="41"/>
-      <c r="I205" s="41"/>
-      <c r="J205" s="41"/>
+      <c r="H205" s="32"/>
+      <c r="I205" s="32"/>
+      <c r="J205" s="32"/>
       <c r="K205" s="1"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206" s="71"/>
-      <c r="B206" s="97"/>
-      <c r="C206" s="94"/>
-      <c r="D206" s="62"/>
+      <c r="A206" s="84"/>
+      <c r="B206" s="49"/>
+      <c r="C206" s="51"/>
+      <c r="D206" s="55"/>
       <c r="F206" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="H206" s="41"/>
-      <c r="I206" s="41"/>
-      <c r="J206" s="41"/>
+      <c r="H206" s="32"/>
+      <c r="I206" s="32"/>
+      <c r="J206" s="32"/>
       <c r="K206" s="1"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207" s="71"/>
-      <c r="B207" s="97"/>
-      <c r="C207" s="94"/>
-      <c r="D207" s="62"/>
+      <c r="A207" s="84"/>
+      <c r="B207" s="49"/>
+      <c r="C207" s="51"/>
+      <c r="D207" s="55"/>
       <c r="F207" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="H207" s="41"/>
-      <c r="I207" s="41"/>
-      <c r="J207" s="41"/>
+      <c r="H207" s="32"/>
+      <c r="I207" s="32"/>
+      <c r="J207" s="32"/>
       <c r="K207" s="1"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="71"/>
-      <c r="B208" s="97"/>
-      <c r="C208" s="94"/>
-      <c r="D208" s="62"/>
+      <c r="A208" s="84"/>
+      <c r="B208" s="49"/>
+      <c r="C208" s="51"/>
+      <c r="D208" s="55"/>
       <c r="F208" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="H208" s="41"/>
-      <c r="I208" s="41"/>
-      <c r="J208" s="41"/>
+      <c r="H208" s="32"/>
+      <c r="I208" s="32"/>
+      <c r="J208" s="32"/>
       <c r="K208" s="1"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="71"/>
-      <c r="B209" s="97"/>
-      <c r="C209" s="94"/>
-      <c r="D209" s="62"/>
+      <c r="A209" s="84"/>
+      <c r="B209" s="49"/>
+      <c r="C209" s="51"/>
+      <c r="D209" s="55"/>
       <c r="F209" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H209" s="41"/>
-      <c r="I209" s="41"/>
-      <c r="J209" s="41"/>
+      <c r="H209" s="32"/>
+      <c r="I209" s="32"/>
+      <c r="J209" s="32"/>
       <c r="K209" s="1"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="71"/>
-      <c r="B210" s="97"/>
-      <c r="C210" s="94"/>
-      <c r="D210" s="62"/>
+      <c r="A210" s="84"/>
+      <c r="B210" s="49"/>
+      <c r="C210" s="51"/>
+      <c r="D210" s="55"/>
       <c r="F210" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="H210" s="41"/>
-      <c r="I210" s="41"/>
-      <c r="J210" s="41"/>
+      <c r="H210" s="32"/>
+      <c r="I210" s="32"/>
+      <c r="J210" s="32"/>
       <c r="K210" s="1"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="71"/>
-      <c r="B211" s="97"/>
-      <c r="C211" s="94"/>
-      <c r="D211" s="62"/>
+      <c r="A211" s="84"/>
+      <c r="B211" s="49"/>
+      <c r="C211" s="51"/>
+      <c r="D211" s="55"/>
       <c r="F211" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="H211" s="41"/>
-      <c r="I211" s="41"/>
-      <c r="J211" s="41"/>
+      <c r="H211" s="32"/>
+      <c r="I211" s="32"/>
+      <c r="J211" s="32"/>
       <c r="K211" s="1"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="71"/>
-      <c r="B212" s="97"/>
-      <c r="C212" s="94"/>
-      <c r="D212" s="62"/>
+      <c r="A212" s="84"/>
+      <c r="B212" s="49"/>
+      <c r="C212" s="51"/>
+      <c r="D212" s="55"/>
       <c r="F212" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="H212" s="41"/>
-      <c r="I212" s="41"/>
-      <c r="J212" s="41"/>
+      <c r="H212" s="32"/>
+      <c r="I212" s="32"/>
+      <c r="J212" s="32"/>
       <c r="K212" s="1"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="71"/>
-      <c r="B213" s="97"/>
-      <c r="C213" s="94"/>
-      <c r="D213" s="62"/>
+      <c r="A213" s="84"/>
+      <c r="B213" s="49"/>
+      <c r="C213" s="51"/>
+      <c r="D213" s="55"/>
       <c r="F213" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="H213" s="41"/>
-      <c r="I213" s="41"/>
-      <c r="J213" s="41"/>
+      <c r="H213" s="32"/>
+      <c r="I213" s="32"/>
+      <c r="J213" s="32"/>
       <c r="K213" s="1"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="71"/>
-      <c r="B214" s="97"/>
-      <c r="C214" s="94"/>
-      <c r="D214" s="62"/>
+      <c r="A214" s="84"/>
+      <c r="B214" s="49"/>
+      <c r="C214" s="51"/>
+      <c r="D214" s="55"/>
       <c r="F214" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="H214" s="41"/>
-      <c r="I214" s="41"/>
-      <c r="J214" s="41"/>
+      <c r="H214" s="32"/>
+      <c r="I214" s="32"/>
+      <c r="J214" s="32"/>
       <c r="K214" s="1"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="71"/>
-      <c r="B215" s="97"/>
-      <c r="C215" s="94"/>
-      <c r="D215" s="62"/>
+      <c r="A215" s="84"/>
+      <c r="B215" s="49"/>
+      <c r="C215" s="51"/>
+      <c r="D215" s="55"/>
       <c r="F215" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="H215" s="41"/>
-      <c r="I215" s="41"/>
-      <c r="J215" s="41"/>
+      <c r="H215" s="32"/>
+      <c r="I215" s="32"/>
+      <c r="J215" s="32"/>
       <c r="K215" s="1"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="71"/>
-      <c r="B216" s="97"/>
-      <c r="C216" s="94"/>
-      <c r="D216" s="62"/>
+      <c r="A216" s="84"/>
+      <c r="B216" s="49"/>
+      <c r="C216" s="51"/>
+      <c r="D216" s="55"/>
       <c r="F216" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="H216" s="41"/>
-      <c r="I216" s="41"/>
-      <c r="J216" s="41"/>
+      <c r="H216" s="32"/>
+      <c r="I216" s="32"/>
+      <c r="J216" s="32"/>
       <c r="K216" s="1"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="71"/>
-      <c r="B217" s="97"/>
-      <c r="C217" s="94"/>
-      <c r="D217" s="62"/>
+      <c r="A217" s="84"/>
+      <c r="B217" s="49"/>
+      <c r="C217" s="51"/>
+      <c r="D217" s="55"/>
       <c r="F217" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="H217" s="41"/>
-      <c r="I217" s="41"/>
-      <c r="J217" s="41"/>
+      <c r="H217" s="32"/>
+      <c r="I217" s="32"/>
+      <c r="J217" s="32"/>
       <c r="K217" s="1"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="71"/>
-      <c r="B218" s="97"/>
-      <c r="C218" s="94"/>
-      <c r="D218" s="62"/>
+      <c r="A218" s="84"/>
+      <c r="B218" s="49"/>
+      <c r="C218" s="51"/>
+      <c r="D218" s="55"/>
       <c r="F218" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="H218" s="41"/>
-      <c r="I218" s="41"/>
-      <c r="J218" s="41"/>
+      <c r="H218" s="32"/>
+      <c r="I218" s="32"/>
+      <c r="J218" s="32"/>
       <c r="K218" s="1"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" s="71"/>
-      <c r="B219" s="97"/>
-      <c r="C219" s="94"/>
-      <c r="D219" s="62"/>
+      <c r="A219" s="84"/>
+      <c r="B219" s="49"/>
+      <c r="C219" s="51"/>
+      <c r="D219" s="55"/>
       <c r="F219" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="H219" s="41"/>
-      <c r="I219" s="41"/>
-      <c r="J219" s="41"/>
+      <c r="H219" s="32"/>
+      <c r="I219" s="32"/>
+      <c r="J219" s="32"/>
       <c r="K219" s="1"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="71"/>
-      <c r="B220" s="97"/>
-      <c r="C220" s="94"/>
-      <c r="D220" s="62"/>
+      <c r="A220" s="84"/>
+      <c r="B220" s="49"/>
+      <c r="C220" s="51"/>
+      <c r="D220" s="55"/>
       <c r="F220" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="H220" s="41"/>
-      <c r="I220" s="41"/>
-      <c r="J220" s="41"/>
+      <c r="H220" s="32"/>
+      <c r="I220" s="32"/>
+      <c r="J220" s="32"/>
       <c r="K220" s="1"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="71"/>
-      <c r="B221" s="97"/>
-      <c r="C221" s="94"/>
-      <c r="D221" s="62"/>
+      <c r="A221" s="84"/>
+      <c r="B221" s="49"/>
+      <c r="C221" s="51"/>
+      <c r="D221" s="55"/>
       <c r="F221" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="H221" s="41"/>
-      <c r="I221" s="41"/>
-      <c r="J221" s="41"/>
+      <c r="H221" s="32"/>
+      <c r="I221" s="32"/>
+      <c r="J221" s="32"/>
       <c r="K221" s="1"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" s="71"/>
-      <c r="B222" s="97"/>
-      <c r="C222" s="95"/>
-      <c r="D222" s="63"/>
+      <c r="A222" s="84"/>
+      <c r="B222" s="49"/>
+      <c r="C222" s="52"/>
+      <c r="D222" s="54"/>
       <c r="F222" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="H222" s="41"/>
-      <c r="I222" s="41"/>
-      <c r="J222" s="41"/>
+      <c r="H222" s="32"/>
+      <c r="I222" s="32"/>
+      <c r="J222" s="32"/>
       <c r="K222" s="1"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" s="71"/>
-      <c r="B223" s="97"/>
-      <c r="C223" s="93" t="s">
+      <c r="A223" s="84"/>
+      <c r="B223" s="49"/>
+      <c r="C223" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="D223" s="61" t="s">
+      <c r="D223" s="53" t="s">
         <v>253</v>
       </c>
       <c r="F223" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="H223" s="41"/>
-      <c r="I223" s="41"/>
-      <c r="J223" s="41"/>
+      <c r="H223" s="32"/>
+      <c r="I223" s="32"/>
+      <c r="J223" s="32"/>
       <c r="K223" s="1"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" s="71"/>
-      <c r="B224" s="97"/>
-      <c r="C224" s="94"/>
-      <c r="D224" s="62"/>
+      <c r="A224" s="84"/>
+      <c r="B224" s="49"/>
+      <c r="C224" s="51"/>
+      <c r="D224" s="55"/>
       <c r="F224" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="H224" s="41"/>
-      <c r="I224" s="41"/>
-      <c r="J224" s="41"/>
+      <c r="H224" s="32"/>
+      <c r="I224" s="32"/>
+      <c r="J224" s="32"/>
       <c r="K224" s="1"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="71"/>
-      <c r="B225" s="97"/>
-      <c r="C225" s="94"/>
-      <c r="D225" s="62"/>
+      <c r="A225" s="84"/>
+      <c r="B225" s="49"/>
+      <c r="C225" s="51"/>
+      <c r="D225" s="55"/>
       <c r="F225" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="H225" s="41"/>
-      <c r="I225" s="41"/>
-      <c r="J225" s="41"/>
+      <c r="H225" s="32"/>
+      <c r="I225" s="32"/>
+      <c r="J225" s="32"/>
       <c r="K225" s="1"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" s="71"/>
-      <c r="B226" s="97"/>
-      <c r="C226" s="94"/>
-      <c r="D226" s="62"/>
+      <c r="A226" s="84"/>
+      <c r="B226" s="49"/>
+      <c r="C226" s="51"/>
+      <c r="D226" s="55"/>
       <c r="F226" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="H226" s="41"/>
-      <c r="I226" s="41"/>
-      <c r="J226" s="41"/>
+      <c r="H226" s="32"/>
+      <c r="I226" s="32"/>
+      <c r="J226" s="32"/>
       <c r="K226" s="1"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227" s="71"/>
-      <c r="B227" s="97"/>
-      <c r="C227" s="94"/>
-      <c r="D227" s="62"/>
+      <c r="A227" s="84"/>
+      <c r="B227" s="49"/>
+      <c r="C227" s="51"/>
+      <c r="D227" s="55"/>
       <c r="F227" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="H227" s="41"/>
-      <c r="I227" s="41"/>
-      <c r="J227" s="41"/>
+      <c r="H227" s="32"/>
+      <c r="I227" s="32"/>
+      <c r="J227" s="32"/>
       <c r="K227" s="1"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" s="71"/>
-      <c r="B228" s="97"/>
-      <c r="C228" s="94"/>
-      <c r="D228" s="62"/>
+      <c r="A228" s="84"/>
+      <c r="B228" s="49"/>
+      <c r="C228" s="51"/>
+      <c r="D228" s="55"/>
       <c r="F228" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="H228" s="41"/>
-      <c r="I228" s="41"/>
-      <c r="J228" s="41"/>
+      <c r="H228" s="32"/>
+      <c r="I228" s="32"/>
+      <c r="J228" s="32"/>
       <c r="K228" s="1"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="71"/>
-      <c r="B229" s="97"/>
-      <c r="C229" s="94"/>
-      <c r="D229" s="62"/>
+      <c r="A229" s="84"/>
+      <c r="B229" s="49"/>
+      <c r="C229" s="51"/>
+      <c r="D229" s="55"/>
       <c r="F229" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="H229" s="41"/>
-      <c r="I229" s="41"/>
-      <c r="J229" s="41"/>
+      <c r="H229" s="32"/>
+      <c r="I229" s="32"/>
+      <c r="J229" s="32"/>
       <c r="K229" s="1"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="71"/>
-      <c r="B230" s="97"/>
-      <c r="C230" s="94"/>
-      <c r="D230" s="62"/>
+      <c r="A230" s="84"/>
+      <c r="B230" s="49"/>
+      <c r="C230" s="51"/>
+      <c r="D230" s="55"/>
       <c r="F230" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="H230" s="41"/>
-      <c r="I230" s="41"/>
-      <c r="J230" s="41"/>
+      <c r="H230" s="32"/>
+      <c r="I230" s="32"/>
+      <c r="J230" s="32"/>
       <c r="K230" s="1"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231" s="71"/>
-      <c r="B231" s="97"/>
-      <c r="C231" s="94"/>
-      <c r="D231" s="62"/>
+      <c r="A231" s="84"/>
+      <c r="B231" s="49"/>
+      <c r="C231" s="51"/>
+      <c r="D231" s="55"/>
       <c r="F231" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="H231" s="41"/>
-      <c r="I231" s="41"/>
-      <c r="J231" s="41"/>
+      <c r="H231" s="32"/>
+      <c r="I231" s="32"/>
+      <c r="J231" s="32"/>
       <c r="K231" s="1"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="71"/>
-      <c r="B232" s="97"/>
-      <c r="C232" s="94"/>
-      <c r="D232" s="62"/>
+      <c r="A232" s="84"/>
+      <c r="B232" s="49"/>
+      <c r="C232" s="51"/>
+      <c r="D232" s="55"/>
       <c r="F232" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="H232" s="41"/>
-      <c r="I232" s="41"/>
-      <c r="J232" s="41"/>
+      <c r="H232" s="32"/>
+      <c r="I232" s="32"/>
+      <c r="J232" s="32"/>
       <c r="K232" s="1"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="71"/>
-      <c r="B233" s="97"/>
-      <c r="C233" s="94"/>
-      <c r="D233" s="62"/>
+      <c r="A233" s="84"/>
+      <c r="B233" s="49"/>
+      <c r="C233" s="51"/>
+      <c r="D233" s="55"/>
       <c r="F233" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="H233" s="41"/>
-      <c r="I233" s="41"/>
-      <c r="J233" s="41"/>
+      <c r="H233" s="32"/>
+      <c r="I233" s="32"/>
+      <c r="J233" s="32"/>
       <c r="K233" s="1"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="71"/>
-      <c r="B234" s="97"/>
-      <c r="C234" s="94"/>
-      <c r="D234" s="62"/>
+      <c r="A234" s="84"/>
+      <c r="B234" s="49"/>
+      <c r="C234" s="51"/>
+      <c r="D234" s="55"/>
       <c r="F234" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="H234" s="41"/>
-      <c r="I234" s="41"/>
-      <c r="J234" s="41"/>
+      <c r="H234" s="32"/>
+      <c r="I234" s="32"/>
+      <c r="J234" s="32"/>
       <c r="K234" s="1"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="71"/>
-      <c r="B235" s="97"/>
-      <c r="C235" s="94"/>
-      <c r="D235" s="62"/>
+      <c r="A235" s="84"/>
+      <c r="B235" s="49"/>
+      <c r="C235" s="51"/>
+      <c r="D235" s="55"/>
       <c r="F235" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="H235" s="41"/>
-      <c r="I235" s="41"/>
-      <c r="J235" s="41"/>
+      <c r="H235" s="32"/>
+      <c r="I235" s="32"/>
+      <c r="J235" s="32"/>
       <c r="K235" s="1"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="71"/>
-      <c r="B236" s="97"/>
-      <c r="C236" s="94"/>
-      <c r="D236" s="62"/>
+      <c r="A236" s="84"/>
+      <c r="B236" s="49"/>
+      <c r="C236" s="51"/>
+      <c r="D236" s="55"/>
       <c r="F236" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="H236" s="41"/>
-      <c r="I236" s="41"/>
-      <c r="J236" s="41"/>
+      <c r="H236" s="32"/>
+      <c r="I236" s="32"/>
+      <c r="J236" s="32"/>
       <c r="K236" s="1"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="71"/>
-      <c r="B237" s="97"/>
-      <c r="C237" s="94"/>
-      <c r="D237" s="62"/>
+      <c r="A237" s="84"/>
+      <c r="B237" s="49"/>
+      <c r="C237" s="51"/>
+      <c r="D237" s="55"/>
       <c r="F237" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="H237" s="41"/>
-      <c r="I237" s="41"/>
-      <c r="J237" s="41"/>
+      <c r="H237" s="32"/>
+      <c r="I237" s="32"/>
+      <c r="J237" s="32"/>
       <c r="K237" s="1"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="71"/>
-      <c r="B238" s="97"/>
-      <c r="C238" s="94"/>
-      <c r="D238" s="62"/>
+      <c r="A238" s="84"/>
+      <c r="B238" s="49"/>
+      <c r="C238" s="51"/>
+      <c r="D238" s="55"/>
       <c r="F238" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="H238" s="41"/>
-      <c r="I238" s="41"/>
-      <c r="J238" s="41"/>
+      <c r="H238" s="32"/>
+      <c r="I238" s="32"/>
+      <c r="J238" s="32"/>
       <c r="K238" s="1"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="71"/>
-      <c r="B239" s="97"/>
-      <c r="C239" s="94"/>
-      <c r="D239" s="62"/>
+      <c r="A239" s="84"/>
+      <c r="B239" s="49"/>
+      <c r="C239" s="51"/>
+      <c r="D239" s="55"/>
       <c r="F239" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="H239" s="41"/>
-      <c r="I239" s="41"/>
-      <c r="J239" s="41"/>
+      <c r="H239" s="32"/>
+      <c r="I239" s="32"/>
+      <c r="J239" s="32"/>
       <c r="K239" s="1"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="71"/>
-      <c r="B240" s="97"/>
-      <c r="C240" s="94"/>
-      <c r="D240" s="62"/>
+      <c r="A240" s="84"/>
+      <c r="B240" s="49"/>
+      <c r="C240" s="51"/>
+      <c r="D240" s="55"/>
       <c r="F240" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="H240" s="41"/>
-      <c r="I240" s="41"/>
-      <c r="J240" s="41"/>
+      <c r="H240" s="32"/>
+      <c r="I240" s="32"/>
+      <c r="J240" s="32"/>
       <c r="K240" s="1"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241" s="72"/>
-      <c r="B241" s="97"/>
-      <c r="C241" s="94"/>
-      <c r="D241" s="62"/>
+      <c r="A241" s="85"/>
+      <c r="B241" s="49"/>
+      <c r="C241" s="51"/>
+      <c r="D241" s="55"/>
       <c r="F241" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="H241" s="41"/>
-      <c r="I241" s="41"/>
-      <c r="J241" s="41"/>
+      <c r="H241" s="32"/>
+      <c r="I241" s="32"/>
+      <c r="J241" s="32"/>
       <c r="K241" s="1"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242" s="61" t="s">
+      <c r="A242" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="B242" s="52" t="s">
+      <c r="B242" s="43" t="s">
         <v>418</v>
       </c>
       <c r="C242" s="15"/>
       <c r="D242" s="15"/>
       <c r="F242" s="11"/>
-      <c r="H242" s="41"/>
-      <c r="I242" s="41"/>
-      <c r="J242" s="41"/>
+      <c r="H242" s="32"/>
+      <c r="I242" s="32"/>
+      <c r="J242" s="32"/>
       <c r="K242" s="1"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="62"/>
-      <c r="B243" s="61" t="s">
+      <c r="A243" s="55"/>
+      <c r="B243" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="C243" s="61" t="s">
+      <c r="C243" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D243" s="61"/>
+      <c r="D243" s="53"/>
       <c r="F243" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="H243" s="41"/>
-      <c r="I243" s="41"/>
-      <c r="J243" s="41"/>
+      <c r="H243" s="32"/>
+      <c r="I243" s="32"/>
+      <c r="J243" s="32"/>
       <c r="K243" s="1"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="62"/>
-      <c r="B244" s="62"/>
-      <c r="C244" s="62"/>
-      <c r="D244" s="62"/>
+      <c r="A244" s="55"/>
+      <c r="B244" s="55"/>
+      <c r="C244" s="55"/>
+      <c r="D244" s="55"/>
       <c r="F244" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="H244" s="41"/>
-      <c r="I244" s="41"/>
-      <c r="J244" s="41"/>
+      <c r="H244" s="32"/>
+      <c r="I244" s="32"/>
+      <c r="J244" s="32"/>
       <c r="K244" s="1"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="62"/>
-      <c r="B245" s="62"/>
-      <c r="C245" s="62"/>
-      <c r="D245" s="62"/>
+      <c r="A245" s="55"/>
+      <c r="B245" s="55"/>
+      <c r="C245" s="55"/>
+      <c r="D245" s="55"/>
       <c r="F245" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="H245" s="41"/>
-      <c r="I245" s="41"/>
-      <c r="J245" s="41"/>
+      <c r="H245" s="32"/>
+      <c r="I245" s="32"/>
+      <c r="J245" s="32"/>
       <c r="K245" s="1"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="62"/>
-      <c r="B246" s="62"/>
-      <c r="C246" s="62"/>
-      <c r="D246" s="62"/>
-      <c r="F246" s="36" t="s">
+      <c r="A246" s="55"/>
+      <c r="B246" s="55"/>
+      <c r="C246" s="55"/>
+      <c r="D246" s="55"/>
+      <c r="F246" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="H246" s="46"/>
-      <c r="I246" s="46"/>
-      <c r="J246" s="46"/>
-      <c r="K246" s="47"/>
+      <c r="H246" s="37"/>
+      <c r="I246" s="37"/>
+      <c r="J246" s="37"/>
+      <c r="K246" s="38"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247" s="62"/>
-      <c r="B247" s="62"/>
-      <c r="C247" s="62"/>
-      <c r="D247" s="62"/>
-      <c r="F247" s="36" t="s">
+      <c r="A247" s="55"/>
+      <c r="B247" s="55"/>
+      <c r="C247" s="55"/>
+      <c r="D247" s="55"/>
+      <c r="F247" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="H247" s="46"/>
-      <c r="I247" s="46"/>
-      <c r="J247" s="46"/>
-      <c r="K247" s="47"/>
+      <c r="H247" s="37"/>
+      <c r="I247" s="37"/>
+      <c r="J247" s="37"/>
+      <c r="K247" s="38"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="62"/>
-      <c r="B248" s="62"/>
-      <c r="C248" s="62"/>
-      <c r="D248" s="62"/>
-      <c r="F248" s="36" t="s">
+      <c r="A248" s="55"/>
+      <c r="B248" s="55"/>
+      <c r="C248" s="55"/>
+      <c r="D248" s="55"/>
+      <c r="F248" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="H248" s="46"/>
-      <c r="I248" s="46"/>
-      <c r="J248" s="46"/>
-      <c r="K248" s="47"/>
+      <c r="H248" s="37"/>
+      <c r="I248" s="37"/>
+      <c r="J248" s="37"/>
+      <c r="K248" s="38"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="62"/>
-      <c r="B249" s="62"/>
-      <c r="C249" s="62"/>
-      <c r="D249" s="62"/>
-      <c r="F249" s="36" t="s">
+      <c r="A249" s="55"/>
+      <c r="B249" s="55"/>
+      <c r="C249" s="55"/>
+      <c r="D249" s="55"/>
+      <c r="F249" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="H249" s="46"/>
-      <c r="I249" s="46"/>
-      <c r="J249" s="46"/>
-      <c r="K249" s="47"/>
+      <c r="H249" s="37"/>
+      <c r="I249" s="37"/>
+      <c r="J249" s="37"/>
+      <c r="K249" s="38"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="62"/>
-      <c r="B250" s="62"/>
-      <c r="C250" s="62"/>
-      <c r="D250" s="62"/>
-      <c r="F250" s="36" t="s">
+      <c r="A250" s="55"/>
+      <c r="B250" s="55"/>
+      <c r="C250" s="55"/>
+      <c r="D250" s="55"/>
+      <c r="F250" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="H250" s="46"/>
-      <c r="I250" s="46"/>
-      <c r="J250" s="46"/>
-      <c r="K250" s="47"/>
+      <c r="H250" s="37"/>
+      <c r="I250" s="37"/>
+      <c r="J250" s="37"/>
+      <c r="K250" s="38"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251" s="62"/>
-      <c r="B251" s="62"/>
-      <c r="C251" s="62"/>
-      <c r="D251" s="62"/>
-      <c r="F251" s="36" t="s">
+      <c r="A251" s="55"/>
+      <c r="B251" s="55"/>
+      <c r="C251" s="55"/>
+      <c r="D251" s="55"/>
+      <c r="F251" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="H251" s="46"/>
-      <c r="I251" s="46"/>
-      <c r="J251" s="46"/>
-      <c r="K251" s="47"/>
+      <c r="H251" s="37"/>
+      <c r="I251" s="37"/>
+      <c r="J251" s="37"/>
+      <c r="K251" s="38"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252" s="62"/>
-      <c r="B252" s="62"/>
-      <c r="C252" s="62"/>
-      <c r="D252" s="62"/>
-      <c r="F252" s="36" t="s">
+      <c r="A252" s="55"/>
+      <c r="B252" s="55"/>
+      <c r="C252" s="55"/>
+      <c r="D252" s="55"/>
+      <c r="F252" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="H252" s="46"/>
-      <c r="I252" s="46"/>
-      <c r="J252" s="46"/>
-      <c r="K252" s="47"/>
+      <c r="H252" s="37"/>
+      <c r="I252" s="37"/>
+      <c r="J252" s="37"/>
+      <c r="K252" s="38"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A253" s="62"/>
-      <c r="B253" s="62"/>
-      <c r="C253" s="63"/>
-      <c r="D253" s="63"/>
-      <c r="F253" s="36" t="s">
+      <c r="A253" s="55"/>
+      <c r="B253" s="55"/>
+      <c r="C253" s="54"/>
+      <c r="D253" s="54"/>
+      <c r="F253" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="H253" s="46"/>
-      <c r="I253" s="46"/>
-      <c r="J253" s="46"/>
-      <c r="K253" s="47"/>
+      <c r="H253" s="37"/>
+      <c r="I253" s="37"/>
+      <c r="J253" s="37"/>
+      <c r="K253" s="38"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254" s="62"/>
-      <c r="B254" s="62"/>
-      <c r="C254" s="31" t="s">
+      <c r="A254" s="55"/>
+      <c r="B254" s="55"/>
+      <c r="C254" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="D254" s="31"/>
-      <c r="F254" s="36"/>
-      <c r="H254" s="46"/>
-      <c r="I254" s="46"/>
-      <c r="J254" s="46"/>
-      <c r="K254" s="47"/>
+      <c r="D254" s="22"/>
+      <c r="F254" s="27"/>
+      <c r="H254" s="37"/>
+      <c r="I254" s="37"/>
+      <c r="J254" s="37"/>
+      <c r="K254" s="38"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="62"/>
-      <c r="B255" s="62"/>
-      <c r="C255" s="73" t="s">
+      <c r="A255" s="55"/>
+      <c r="B255" s="55"/>
+      <c r="C255" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="D255" s="73"/>
-      <c r="F255" s="36" t="s">
+      <c r="D255" s="62"/>
+      <c r="F255" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="H255" s="48" t="s">
+      <c r="H255" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="I255" s="46"/>
-      <c r="J255" s="46"/>
-      <c r="K255" s="47"/>
+      <c r="I255" s="37"/>
+      <c r="J255" s="37"/>
+      <c r="K255" s="38"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256" s="62"/>
-      <c r="B256" s="62"/>
-      <c r="C256" s="74"/>
-      <c r="D256" s="74"/>
-      <c r="F256" s="36" t="s">
+      <c r="A256" s="55"/>
+      <c r="B256" s="55"/>
+      <c r="C256" s="72"/>
+      <c r="D256" s="72"/>
+      <c r="F256" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="H256" s="46"/>
-      <c r="I256" s="46"/>
-      <c r="J256" s="46"/>
-      <c r="K256" s="47"/>
+      <c r="H256" s="37"/>
+      <c r="I256" s="37"/>
+      <c r="J256" s="37"/>
+      <c r="K256" s="38"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="62"/>
-      <c r="B257" s="62"/>
-      <c r="C257" s="74"/>
-      <c r="D257" s="74"/>
-      <c r="F257" s="36" t="s">
+      <c r="A257" s="55"/>
+      <c r="B257" s="55"/>
+      <c r="C257" s="72"/>
+      <c r="D257" s="72"/>
+      <c r="F257" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="H257" s="48" t="s">
+      <c r="H257" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="I257" s="46"/>
-      <c r="J257" s="46"/>
-      <c r="K257" s="47"/>
+      <c r="I257" s="37"/>
+      <c r="J257" s="37"/>
+      <c r="K257" s="38"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="62"/>
-      <c r="B258" s="62"/>
-      <c r="C258" s="74"/>
-      <c r="D258" s="74"/>
-      <c r="F258" s="36" t="s">
+      <c r="A258" s="55"/>
+      <c r="B258" s="55"/>
+      <c r="C258" s="72"/>
+      <c r="D258" s="72"/>
+      <c r="F258" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="H258" s="46"/>
-      <c r="I258" s="46"/>
-      <c r="J258" s="46"/>
-      <c r="K258" s="47"/>
+      <c r="H258" s="37"/>
+      <c r="I258" s="37"/>
+      <c r="J258" s="37"/>
+      <c r="K258" s="38"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259" s="62"/>
-      <c r="B259" s="62"/>
-      <c r="C259" s="74"/>
-      <c r="D259" s="74"/>
-      <c r="F259" s="36" t="s">
+      <c r="A259" s="55"/>
+      <c r="B259" s="55"/>
+      <c r="C259" s="72"/>
+      <c r="D259" s="72"/>
+      <c r="F259" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="H259" s="48" t="s">
+      <c r="H259" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="I259" s="46"/>
-      <c r="J259" s="46"/>
-      <c r="K259" s="47"/>
+      <c r="I259" s="37"/>
+      <c r="J259" s="37"/>
+      <c r="K259" s="38"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" s="62"/>
-      <c r="B260" s="62"/>
-      <c r="C260" s="74"/>
-      <c r="D260" s="74"/>
-      <c r="F260" s="36" t="s">
+      <c r="A260" s="55"/>
+      <c r="B260" s="55"/>
+      <c r="C260" s="72"/>
+      <c r="D260" s="72"/>
+      <c r="F260" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="H260" s="46"/>
-      <c r="I260" s="46"/>
-      <c r="J260" s="46"/>
-      <c r="K260" s="47"/>
+      <c r="H260" s="37"/>
+      <c r="I260" s="37"/>
+      <c r="J260" s="37"/>
+      <c r="K260" s="38"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261" s="62"/>
-      <c r="B261" s="62"/>
-      <c r="C261" s="74"/>
-      <c r="D261" s="74"/>
-      <c r="F261" s="56" t="s">
+      <c r="A261" s="55"/>
+      <c r="B261" s="55"/>
+      <c r="C261" s="72"/>
+      <c r="D261" s="72"/>
+      <c r="F261" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="H261" s="48"/>
-      <c r="I261" s="46"/>
-      <c r="J261" s="46"/>
-      <c r="K261" s="47" t="s">
+      <c r="H261" s="39"/>
+      <c r="I261" s="37"/>
+      <c r="J261" s="37"/>
+      <c r="K261" s="38" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262" s="62"/>
-      <c r="B262" s="62"/>
-      <c r="C262" s="74"/>
-      <c r="D262" s="74"/>
-      <c r="F262" s="56" t="s">
+      <c r="A262" s="55"/>
+      <c r="B262" s="55"/>
+      <c r="C262" s="72"/>
+      <c r="D262" s="72"/>
+      <c r="F262" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="H262" s="46"/>
-      <c r="I262" s="46"/>
-      <c r="J262" s="46"/>
-      <c r="K262" s="47"/>
+      <c r="H262" s="37"/>
+      <c r="I262" s="37"/>
+      <c r="J262" s="37"/>
+      <c r="K262" s="38"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263" s="62"/>
-      <c r="B263" s="62"/>
-      <c r="C263" s="74"/>
-      <c r="D263" s="74"/>
-      <c r="F263" s="36" t="s">
+      <c r="A263" s="55"/>
+      <c r="B263" s="55"/>
+      <c r="C263" s="72"/>
+      <c r="D263" s="72"/>
+      <c r="F263" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="H263" s="48" t="s">
+      <c r="H263" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="I263" s="46"/>
-      <c r="J263" s="46"/>
-      <c r="K263" s="47"/>
+      <c r="I263" s="37"/>
+      <c r="J263" s="37"/>
+      <c r="K263" s="38"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="62"/>
-      <c r="B264" s="62"/>
-      <c r="C264" s="74"/>
-      <c r="D264" s="74"/>
-      <c r="F264" s="37" t="s">
+      <c r="A264" s="55"/>
+      <c r="B264" s="55"/>
+      <c r="C264" s="72"/>
+      <c r="D264" s="72"/>
+      <c r="F264" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="H264" s="48" t="s">
+      <c r="H264" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="I264" s="46"/>
-      <c r="J264" s="46"/>
-      <c r="K264" s="49" t="s">
+      <c r="I264" s="37"/>
+      <c r="J264" s="37"/>
+      <c r="K264" s="40" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="62"/>
-      <c r="B265" s="62"/>
-      <c r="C265" s="75"/>
-      <c r="D265" s="75"/>
-      <c r="F265" s="37" t="s">
+      <c r="A265" s="55"/>
+      <c r="B265" s="55"/>
+      <c r="C265" s="63"/>
+      <c r="D265" s="63"/>
+      <c r="F265" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="H265" s="48" t="s">
+      <c r="H265" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="I265" s="46"/>
-      <c r="J265" s="46"/>
-      <c r="K265" s="47"/>
+      <c r="I265" s="37"/>
+      <c r="J265" s="37"/>
+      <c r="K265" s="38"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="62"/>
-      <c r="B266" s="62"/>
-      <c r="C266" s="76" t="s">
+      <c r="A266" s="55"/>
+      <c r="B266" s="55"/>
+      <c r="C266" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="D266" s="76"/>
-      <c r="F266" s="36" t="s">
+      <c r="D266" s="59"/>
+      <c r="F266" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="H266" s="46"/>
-      <c r="I266" s="46"/>
-      <c r="J266" s="46"/>
-      <c r="K266" s="47"/>
+      <c r="H266" s="37"/>
+      <c r="I266" s="37"/>
+      <c r="J266" s="37"/>
+      <c r="K266" s="38"/>
     </row>
     <row r="267" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="62"/>
-      <c r="B267" s="62"/>
-      <c r="C267" s="77"/>
-      <c r="D267" s="77"/>
-      <c r="F267" s="36" t="s">
+      <c r="A267" s="55"/>
+      <c r="B267" s="55"/>
+      <c r="C267" s="60"/>
+      <c r="D267" s="60"/>
+      <c r="F267" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="H267" s="48" t="s">
+      <c r="H267" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="I267" s="46"/>
-      <c r="J267" s="46"/>
-      <c r="K267" s="47"/>
+      <c r="I267" s="37"/>
+      <c r="J267" s="37"/>
+      <c r="K267" s="38"/>
     </row>
     <row r="268" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="62"/>
-      <c r="B268" s="62"/>
-      <c r="C268" s="77"/>
-      <c r="D268" s="77"/>
-      <c r="F268" s="36" t="s">
+      <c r="A268" s="55"/>
+      <c r="B268" s="55"/>
+      <c r="C268" s="60"/>
+      <c r="D268" s="60"/>
+      <c r="F268" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="H268" s="48" t="s">
+      <c r="H268" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="I268" s="46"/>
-      <c r="J268" s="46"/>
-      <c r="K268" s="47"/>
+      <c r="I268" s="37"/>
+      <c r="J268" s="37"/>
+      <c r="K268" s="38"/>
     </row>
     <row r="269" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="62"/>
-      <c r="B269" s="62"/>
-      <c r="C269" s="78"/>
-      <c r="D269" s="78"/>
-      <c r="F269" s="36" t="s">
+      <c r="A269" s="55"/>
+      <c r="B269" s="55"/>
+      <c r="C269" s="61"/>
+      <c r="D269" s="61"/>
+      <c r="F269" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="H269" s="48" t="s">
+      <c r="H269" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="I269" s="46"/>
-      <c r="J269" s="46"/>
-      <c r="K269" s="47"/>
+      <c r="I269" s="37"/>
+      <c r="J269" s="37"/>
+      <c r="K269" s="38"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" s="62"/>
-      <c r="B270" s="62"/>
-      <c r="C270" s="76" t="s">
+      <c r="A270" s="55"/>
+      <c r="B270" s="55"/>
+      <c r="C270" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="D270" s="76"/>
-      <c r="F270" s="36" t="s">
+      <c r="D270" s="59"/>
+      <c r="F270" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="H270" s="48" t="s">
+      <c r="H270" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="I270" s="46"/>
-      <c r="J270" s="46"/>
-      <c r="K270" s="47"/>
+      <c r="I270" s="37"/>
+      <c r="J270" s="37"/>
+      <c r="K270" s="38"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="62"/>
-      <c r="B271" s="62"/>
-      <c r="C271" s="77"/>
-      <c r="D271" s="77"/>
-      <c r="F271" s="36" t="s">
+      <c r="A271" s="55"/>
+      <c r="B271" s="55"/>
+      <c r="C271" s="60"/>
+      <c r="D271" s="60"/>
+      <c r="F271" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="H271" s="48" t="s">
+      <c r="H271" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="I271" s="46"/>
-      <c r="J271" s="46"/>
-      <c r="K271" s="47"/>
+      <c r="I271" s="37"/>
+      <c r="J271" s="37"/>
+      <c r="K271" s="38"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A272" s="62"/>
-      <c r="B272" s="62"/>
-      <c r="C272" s="77"/>
-      <c r="D272" s="77"/>
-      <c r="F272" s="36" t="s">
+      <c r="A272" s="55"/>
+      <c r="B272" s="55"/>
+      <c r="C272" s="60"/>
+      <c r="D272" s="60"/>
+      <c r="F272" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="H272" s="48" t="s">
+      <c r="H272" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="I272" s="46"/>
-      <c r="J272" s="46"/>
-      <c r="K272" s="47"/>
+      <c r="I272" s="37"/>
+      <c r="J272" s="37"/>
+      <c r="K272" s="38"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A273" s="62"/>
-      <c r="B273" s="62"/>
-      <c r="C273" s="78"/>
-      <c r="D273" s="78"/>
-      <c r="F273" s="36" t="s">
+      <c r="A273" s="55"/>
+      <c r="B273" s="55"/>
+      <c r="C273" s="61"/>
+      <c r="D273" s="61"/>
+      <c r="F273" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="H273" s="48" t="s">
+      <c r="H273" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="I273" s="46"/>
-      <c r="J273" s="46"/>
-      <c r="K273" s="47"/>
+      <c r="I273" s="37"/>
+      <c r="J273" s="37"/>
+      <c r="K273" s="38"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A274" s="62"/>
-      <c r="B274" s="62"/>
-      <c r="C274" s="79" t="s">
+      <c r="A274" s="55"/>
+      <c r="B274" s="55"/>
+      <c r="C274" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="D274" s="73"/>
-      <c r="F274" s="38" t="s">
+      <c r="D274" s="62"/>
+      <c r="F274" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="H274" s="48"/>
-      <c r="I274" s="46"/>
-      <c r="J274" s="46"/>
-      <c r="K274" s="47"/>
+      <c r="H274" s="39"/>
+      <c r="I274" s="37"/>
+      <c r="J274" s="37"/>
+      <c r="K274" s="38"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A275" s="62"/>
-      <c r="B275" s="62"/>
-      <c r="C275" s="80"/>
-      <c r="D275" s="75"/>
-      <c r="F275" s="39" t="s">
+      <c r="A275" s="55"/>
+      <c r="B275" s="55"/>
+      <c r="C275" s="87"/>
+      <c r="D275" s="63"/>
+      <c r="F275" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="H275" s="48" t="s">
+      <c r="H275" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="I275" s="46"/>
-      <c r="J275" s="46"/>
-      <c r="K275" s="47"/>
+      <c r="I275" s="37"/>
+      <c r="J275" s="37"/>
+      <c r="K275" s="38"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A276" s="62"/>
-      <c r="B276" s="62"/>
-      <c r="C276" s="53" t="s">
+      <c r="A276" s="55"/>
+      <c r="B276" s="55"/>
+      <c r="C276" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="D276" s="51"/>
-      <c r="F276" s="36"/>
-      <c r="H276" s="46"/>
-      <c r="I276" s="46"/>
-      <c r="J276" s="46" t="s">
+      <c r="D276" s="42"/>
+      <c r="F276" s="27"/>
+      <c r="H276" s="37"/>
+      <c r="I276" s="37"/>
+      <c r="J276" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="K276" s="47"/>
+      <c r="K276" s="38"/>
     </row>
     <row r="277" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A277" s="62"/>
-      <c r="B277" s="62"/>
-      <c r="C277" s="54" t="s">
+      <c r="A277" s="55"/>
+      <c r="B277" s="55"/>
+      <c r="C277" s="45" t="s">
         <v>421</v>
       </c>
-      <c r="D277" s="32"/>
-      <c r="F277" s="38" t="s">
+      <c r="D277" s="23"/>
+      <c r="F277" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="H277" s="48" t="s">
+      <c r="H277" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="I277" s="46"/>
-      <c r="J277" s="46"/>
-      <c r="K277" s="49" t="s">
+      <c r="I277" s="37"/>
+      <c r="J277" s="37"/>
+      <c r="K277" s="40" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A278" s="62"/>
-      <c r="B278" s="62"/>
-      <c r="C278" s="55" t="s">
+      <c r="A278" s="55"/>
+      <c r="B278" s="55"/>
+      <c r="C278" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="D278" s="33"/>
-      <c r="F278" s="36"/>
-      <c r="H278" s="46"/>
-      <c r="I278" s="46"/>
-      <c r="J278" s="46" t="s">
+      <c r="D278" s="24"/>
+      <c r="F278" s="27"/>
+      <c r="H278" s="37"/>
+      <c r="I278" s="37"/>
+      <c r="J278" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="K278" s="47"/>
+      <c r="K278" s="38"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A279" s="62"/>
-      <c r="B279" s="62"/>
-      <c r="C279" s="34" t="s">
+      <c r="A279" s="55"/>
+      <c r="B279" s="55"/>
+      <c r="C279" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="D279" s="34"/>
-      <c r="F279" s="39" t="s">
+      <c r="D279" s="25"/>
+      <c r="F279" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="H279" s="46"/>
-      <c r="I279" s="46"/>
-      <c r="J279" s="46"/>
-      <c r="K279" s="47"/>
+      <c r="H279" s="37"/>
+      <c r="I279" s="37"/>
+      <c r="J279" s="37"/>
+      <c r="K279" s="38"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A280" s="62"/>
-      <c r="B280" s="62"/>
-      <c r="C280" s="31"/>
-      <c r="D280" s="31"/>
-      <c r="F280" s="39" t="s">
+      <c r="A280" s="55"/>
+      <c r="B280" s="55"/>
+      <c r="C280" s="22"/>
+      <c r="D280" s="22"/>
+      <c r="F280" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="H280" s="48" t="s">
+      <c r="H280" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="I280" s="46"/>
-      <c r="J280" s="46"/>
-      <c r="K280" s="47"/>
+      <c r="I280" s="37"/>
+      <c r="J280" s="37"/>
+      <c r="K280" s="38"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A281" s="62"/>
-      <c r="B281" s="62"/>
-      <c r="C281" s="31"/>
-      <c r="D281" s="31"/>
-      <c r="F281" s="39" t="s">
+      <c r="A281" s="55"/>
+      <c r="B281" s="55"/>
+      <c r="C281" s="22"/>
+      <c r="D281" s="22"/>
+      <c r="F281" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="H281" s="48"/>
-      <c r="I281" s="46"/>
-      <c r="J281" s="46"/>
-      <c r="K281" s="47"/>
+      <c r="H281" s="39"/>
+      <c r="I281" s="37"/>
+      <c r="J281" s="37"/>
+      <c r="K281" s="38"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A282" s="62"/>
-      <c r="B282" s="62"/>
-      <c r="C282" s="34" t="s">
+      <c r="A282" s="55"/>
+      <c r="B282" s="55"/>
+      <c r="C282" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D282" s="34"/>
-      <c r="F282" s="39" t="s">
+      <c r="D282" s="25"/>
+      <c r="F282" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="H282" s="46"/>
-      <c r="I282" s="46"/>
-      <c r="J282" s="46"/>
-      <c r="K282" s="47"/>
+      <c r="H282" s="37"/>
+      <c r="I282" s="37"/>
+      <c r="J282" s="37"/>
+      <c r="K282" s="38"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A283" s="62"/>
-      <c r="B283" s="62"/>
-      <c r="C283" s="31"/>
-      <c r="D283" s="31"/>
-      <c r="F283" s="39" t="s">
+      <c r="A283" s="55"/>
+      <c r="B283" s="55"/>
+      <c r="C283" s="22"/>
+      <c r="D283" s="22"/>
+      <c r="F283" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="H283" s="48" t="s">
+      <c r="H283" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="I283" s="46"/>
-      <c r="J283" s="46"/>
-      <c r="K283" s="47"/>
+      <c r="I283" s="37"/>
+      <c r="J283" s="37"/>
+      <c r="K283" s="38"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A284" s="62"/>
-      <c r="B284" s="62"/>
-      <c r="C284" s="31"/>
-      <c r="D284" s="31"/>
-      <c r="F284" s="39" t="s">
+      <c r="A284" s="55"/>
+      <c r="B284" s="55"/>
+      <c r="C284" s="22"/>
+      <c r="D284" s="22"/>
+      <c r="F284" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="H284" s="46"/>
-      <c r="I284" s="46"/>
-      <c r="J284" s="46"/>
-      <c r="K284" s="47"/>
+      <c r="H284" s="37"/>
+      <c r="I284" s="37"/>
+      <c r="J284" s="37"/>
+      <c r="K284" s="38"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A285" s="62"/>
-      <c r="B285" s="62"/>
-      <c r="C285" s="34" t="s">
+      <c r="A285" s="55"/>
+      <c r="B285" s="55"/>
+      <c r="C285" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="D285" s="34"/>
-      <c r="F285" s="36"/>
-      <c r="H285" s="46"/>
-      <c r="I285" s="46"/>
-      <c r="J285" s="46"/>
-      <c r="K285" s="47"/>
+      <c r="D285" s="25"/>
+      <c r="F285" s="27"/>
+      <c r="H285" s="37"/>
+      <c r="I285" s="37"/>
+      <c r="J285" s="37"/>
+      <c r="K285" s="38"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A286" s="62"/>
-      <c r="B286" s="63"/>
-      <c r="C286" s="34" t="s">
+      <c r="A286" s="55"/>
+      <c r="B286" s="54"/>
+      <c r="C286" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="D286" s="34"/>
-      <c r="F286" s="36"/>
-      <c r="H286" s="46"/>
-      <c r="I286" s="46"/>
-      <c r="J286" s="46"/>
-      <c r="K286" s="47"/>
+      <c r="D286" s="25"/>
+      <c r="F286" s="27"/>
+      <c r="H286" s="37"/>
+      <c r="I286" s="37"/>
+      <c r="J286" s="37"/>
+      <c r="K286" s="38"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A287" s="63"/>
-      <c r="B287" s="27" t="s">
+      <c r="A287" s="54"/>
+      <c r="B287" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="C287" s="31"/>
-      <c r="D287" s="31"/>
-      <c r="F287" s="36"/>
-      <c r="H287" s="46"/>
-      <c r="I287" s="46"/>
-      <c r="J287" s="46"/>
-      <c r="K287" s="47"/>
+      <c r="C287" s="22"/>
+      <c r="D287" s="22"/>
+      <c r="F287" s="27"/>
+      <c r="H287" s="37"/>
+      <c r="I287" s="37"/>
+      <c r="J287" s="37"/>
+      <c r="K287" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B138:B241"/>
-    <mergeCell ref="C138:C153"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="D148:D153"/>
-    <mergeCell ref="C154:C184"/>
-    <mergeCell ref="D154:D184"/>
-    <mergeCell ref="C185:C201"/>
-    <mergeCell ref="D270:D273"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D185:D201"/>
-    <mergeCell ref="C202:C222"/>
-    <mergeCell ref="D202:D222"/>
-    <mergeCell ref="C223:C241"/>
-    <mergeCell ref="D223:D241"/>
-    <mergeCell ref="D243:D253"/>
-    <mergeCell ref="D255:D265"/>
-    <mergeCell ref="D266:D269"/>
+    <mergeCell ref="B243:B286"/>
+    <mergeCell ref="A242:A287"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="B2:B26"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A138:A241"/>
+    <mergeCell ref="C243:C253"/>
+    <mergeCell ref="C255:C265"/>
+    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="B80:B109"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A56:A137"/>
+    <mergeCell ref="B110:B127"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C98"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C82"/>
     <mergeCell ref="B47:B55"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="C51:C54"/>
@@ -8500,41 +8513,32 @@
     <mergeCell ref="C40:C46"/>
     <mergeCell ref="B37:B46"/>
     <mergeCell ref="B27:B36"/>
+    <mergeCell ref="D270:D273"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D185:D201"/>
+    <mergeCell ref="C202:C222"/>
+    <mergeCell ref="D202:D222"/>
+    <mergeCell ref="C223:C241"/>
+    <mergeCell ref="D223:D241"/>
+    <mergeCell ref="D243:D253"/>
+    <mergeCell ref="D255:D265"/>
+    <mergeCell ref="D266:D269"/>
     <mergeCell ref="C106:C108"/>
     <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="B243:B286"/>
-    <mergeCell ref="A242:A287"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="B2:B26"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A138:A241"/>
-    <mergeCell ref="C243:C253"/>
-    <mergeCell ref="C255:C265"/>
-    <mergeCell ref="C266:C269"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="B80:B109"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A56:A137"/>
-    <mergeCell ref="B110:B127"/>
+    <mergeCell ref="B138:B241"/>
+    <mergeCell ref="C138:C153"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="D148:D153"/>
+    <mergeCell ref="C154:C184"/>
+    <mergeCell ref="D154:D184"/>
+    <mergeCell ref="C185:C201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8547,1089 +8551,1129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="F40" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
-    <col min="6" max="7" width="41.125" customWidth="1"/>
-    <col min="8" max="8" width="45.5" customWidth="1"/>
-    <col min="9" max="9" width="25.875" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="88"/>
+    <col min="2" max="2" width="11.25" style="88" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="88" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="88" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="88" customWidth="1"/>
+    <col min="6" max="7" width="41.125" style="88" customWidth="1"/>
+    <col min="8" max="8" width="45.5" style="88" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="88" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="88" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="88" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="90" t="s">
         <v>432</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="89" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="90" t="s">
         <v>433</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="89" t="s">
         <v>434</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="89" t="s">
         <v>559</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="89" t="s">
         <v>435</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="89" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="91" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="92" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="94" t="s">
         <v>440</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="93" t="s">
         <v>441</v>
       </c>
-      <c r="G3" s="167"/>
-      <c r="H3" s="113" t="s">
+      <c r="G3" s="95"/>
+      <c r="H3" s="96" t="s">
         <v>442</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="97" t="s">
         <v>443</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="97" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="109"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="97" t="s">
         <v>444</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="97" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="109"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="103" t="s">
         <v>445</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="102" t="s">
         <v>446</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="102"/>
+      <c r="H5" s="102" t="s">
         <v>447</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="102" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="109"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="104" t="s">
         <v>449</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="97" t="s">
         <v>450</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="105" t="s">
         <v>564</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="97" t="s">
         <v>451</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="97" t="s">
         <v>452</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="97" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="109"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="97" t="s">
         <v>453</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="104"/>
+      <c r="F7" s="97" t="s">
         <v>454</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="97"/>
+      <c r="H7" s="97" t="s">
         <v>455</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="97" t="s">
         <v>452</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="97" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="109"/>
-      <c r="C8" s="114"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="92" t="s">
         <v>456</v>
       </c>
       <c r="F8" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="G8" s="186" t="s">
+      <c r="G8" s="107" t="s">
         <v>560</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="108" t="s">
         <v>458</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="102" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="109"/>
-      <c r="C9" s="114"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="106"/>
-      <c r="E9" s="119"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="106"/>
-      <c r="G9" s="187" t="s">
+      <c r="G9" s="110" t="s">
         <v>565</v>
       </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="111"/>
+      <c r="I9" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="102" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="109"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="92" t="s">
         <v>456</v>
       </c>
       <c r="F10" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="104" t="s">
+      <c r="G10" s="112"/>
+      <c r="H10" s="108" t="s">
         <v>461</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="102" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="109"/>
-      <c r="C11" s="114"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="106"/>
-      <c r="E11" s="119"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="106"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="17" t="s">
+      <c r="G11" s="113"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="102" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="109"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="111" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="94" t="s">
         <v>456</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="G12" s="169"/>
-      <c r="H12" s="113" t="s">
+      <c r="G12" s="115"/>
+      <c r="H12" s="96" t="s">
         <v>463</v>
       </c>
-      <c r="I12" s="118" t="s">
+      <c r="I12" s="104" t="s">
         <v>464</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="97" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="109"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="118" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="104" t="s">
         <v>465</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="97" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="109"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="111" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="94" t="s">
         <v>456</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="93" t="s">
         <v>561</v>
       </c>
-      <c r="G14" s="182" t="s">
+      <c r="G14" s="117" t="s">
         <v>562</v>
       </c>
-      <c r="H14" s="113" t="s">
+      <c r="H14" s="96" t="s">
         <v>466</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="97" t="s">
         <v>464</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="97" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="109"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="16" t="s">
+      <c r="B15" s="91"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="97" t="s">
         <v>467</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="97" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="109"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="114" t="s">
         <v>468</v>
       </c>
-      <c r="G16" s="185" t="s">
+      <c r="G16" s="119" t="s">
         <v>563</v>
       </c>
-      <c r="H16" s="112" t="s">
+      <c r="H16" s="94" t="s">
         <v>469</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="97" t="s">
         <v>470</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="97" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="109"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="171" t="s">
+      <c r="B17" s="91"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="120" t="s">
         <v>566</v>
       </c>
-      <c r="H17" s="120"/>
-      <c r="I17" s="16" t="s">
+      <c r="H17" s="118"/>
+      <c r="I17" s="97" t="s">
         <v>452</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="97" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="109"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="16" t="s">
+      <c r="B18" s="91"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="97" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="109"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="16" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="97" t="s">
         <v>472</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="97" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="109"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="16" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="97" t="s">
         <v>474</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="97" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="121" t="s">
         <v>475</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="122" t="s">
         <v>476</v>
       </c>
-      <c r="D21" s="124" t="s">
+      <c r="D21" s="123" t="s">
         <v>477</v>
       </c>
-      <c r="E21" s="125" t="s">
+      <c r="E21" s="124" t="s">
         <v>478</v>
       </c>
-      <c r="F21" s="126" t="s">
+      <c r="F21" s="125" t="s">
         <v>479</v>
       </c>
-      <c r="G21" s="172"/>
-      <c r="H21" s="125" t="s">
+      <c r="G21" s="126"/>
+      <c r="H21" s="124" t="s">
         <v>480</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="127" t="s">
         <v>481</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="127" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="122"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="19" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="127" t="s">
         <v>482</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="127" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="122"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="19" t="s">
+      <c r="B23" s="121"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="127" t="s">
         <v>483</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="127" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="122"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="19" t="s">
+      <c r="B24" s="121"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="127" t="s">
         <v>484</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="127" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="122"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="124" t="s">
+      <c r="B25" s="121"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="123" t="s">
         <v>485</v>
       </c>
-      <c r="E25" s="125" t="s">
+      <c r="E25" s="124" t="s">
         <v>486</v>
       </c>
-      <c r="F25" s="126" t="s">
+      <c r="F25" s="125" t="s">
         <v>487</v>
       </c>
-      <c r="G25" s="172"/>
-      <c r="H25" s="125" t="s">
+      <c r="G25" s="126"/>
+      <c r="H25" s="124" t="s">
         <v>488</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="127" t="s">
         <v>489</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="127" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="122"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="19" t="s">
+      <c r="B26" s="121"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="127" t="s">
         <v>482</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="127" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="122"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="19" t="s">
+      <c r="B27" s="121"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="127" t="s">
         <v>490</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="127" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="122"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="124" t="s">
+      <c r="B28" s="121"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="125" t="s">
+      <c r="E28" s="124" t="s">
         <v>486</v>
       </c>
-      <c r="F28" s="124" t="s">
+      <c r="F28" s="123" t="s">
         <v>491</v>
       </c>
-      <c r="G28" s="175"/>
-      <c r="H28" s="130" t="s">
+      <c r="G28" s="133"/>
+      <c r="H28" s="134" t="s">
         <v>492</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="127" t="s">
         <v>493</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="127" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="122"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="19" t="s">
+      <c r="B29" s="121"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="127" t="s">
         <v>494</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="127" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="122"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="19" t="s">
+      <c r="B30" s="121"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="127" t="s">
         <v>495</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="127" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="122"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="19" t="s">
+      <c r="B31" s="121"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="127" t="s">
         <v>496</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="127" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="122"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="19" t="s">
+      <c r="B32" s="121"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="127" t="s">
         <v>497</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="127" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="122"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="19" t="s">
+      <c r="B33" s="121"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="127" t="s">
         <v>498</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="127" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="122"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="18" t="s">
+      <c r="B34" s="121"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="139" t="s">
         <v>230</v>
       </c>
-      <c r="E34" s="133" t="s">
+      <c r="E34" s="140" t="s">
         <v>486</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="139" t="s">
         <v>499</v>
       </c>
-      <c r="G34" s="183" t="s">
+      <c r="G34" s="141" t="s">
         <v>567</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="139" t="s">
         <v>500</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="139" t="s">
         <v>501</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="139" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="122"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="134" t="s">
+      <c r="B35" s="121"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="142" t="s">
         <v>231</v>
       </c>
-      <c r="E35" s="135" t="s">
+      <c r="E35" s="122" t="s">
         <v>502</v>
       </c>
-      <c r="F35" s="134" t="s">
+      <c r="F35" s="142" t="s">
         <v>503</v>
       </c>
-      <c r="G35" s="178" t="s">
+      <c r="G35" s="143" t="s">
         <v>568</v>
       </c>
-      <c r="H35" s="136" t="s">
+      <c r="H35" s="144" t="s">
         <v>504</v>
       </c>
-      <c r="I35" s="137" t="s">
+      <c r="I35" s="139" t="s">
         <v>505</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="139" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="122"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="179" t="s">
+      <c r="B36" s="121"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="146" t="s">
         <v>568</v>
       </c>
-      <c r="H36" s="139"/>
-      <c r="I36" s="137" t="s">
+      <c r="H36" s="147"/>
+      <c r="I36" s="139" t="s">
         <v>506</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="139" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="122"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="137" t="s">
+      <c r="B37" s="121"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="139" t="s">
         <v>507</v>
       </c>
       <c r="E37" s="140"/>
-      <c r="F37" s="137" t="s">
+      <c r="F37" s="139" t="s">
         <v>508</v>
       </c>
       <c r="G37" s="140" t="s">
         <v>569</v>
       </c>
-      <c r="H37" s="137" t="s">
+      <c r="H37" s="139" t="s">
         <v>509</v>
       </c>
-      <c r="I37" s="137" t="s">
+      <c r="I37" s="139" t="s">
         <v>510</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="J37" s="139" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="122"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="124" t="s">
+      <c r="B38" s="121"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="E38" s="125" t="s">
+      <c r="E38" s="124" t="s">
         <v>486</v>
       </c>
-      <c r="F38" s="126" t="s">
+      <c r="F38" s="125" t="s">
         <v>511</v>
       </c>
-      <c r="G38" s="182" t="s">
+      <c r="G38" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="H38" s="130" t="s">
+      <c r="H38" s="134" t="s">
         <v>512</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="127" t="s">
         <v>513</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="127" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="122"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="184" t="s">
+      <c r="B39" s="121"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="148" t="s">
         <v>572</v>
       </c>
-      <c r="H39" s="131"/>
-      <c r="I39" s="19" t="s">
+      <c r="H39" s="136"/>
+      <c r="I39" s="127" t="s">
         <v>514</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="127" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="122"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="188" t="s">
+      <c r="B40" s="121"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="149" t="s">
         <v>571</v>
       </c>
-      <c r="H40" s="132"/>
-      <c r="I40" s="19" t="s">
+      <c r="H40" s="138"/>
+      <c r="I40" s="127" t="s">
         <v>515</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="127" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="142" t="s">
+      <c r="B41" s="150" t="s">
         <v>516</v>
       </c>
-      <c r="C41" s="143" t="s">
+      <c r="C41" s="151" t="s">
         <v>517</v>
       </c>
-      <c r="D41" s="144" t="s">
+      <c r="D41" s="152" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="145" t="s">
+      <c r="E41" s="153" t="s">
         <v>518</v>
       </c>
-      <c r="F41" s="166" t="s">
+      <c r="F41" s="154" t="s">
         <v>519</v>
       </c>
-      <c r="G41" s="180" t="s">
+      <c r="G41" s="155" t="s">
         <v>573</v>
       </c>
-      <c r="H41" s="146" t="s">
+      <c r="H41" s="156" t="s">
         <v>520</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="157" t="s">
         <v>521</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="157" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="142"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="166"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="20" t="s">
+      <c r="B42" s="150"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="157" t="s">
         <v>522</v>
       </c>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="157" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="142"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="21" t="s">
+      <c r="B43" s="150"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="162" t="s">
         <v>221</v>
       </c>
-      <c r="E43" s="150" t="s">
+      <c r="E43" s="163" t="s">
         <v>523</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="162" t="s">
         <v>524</v>
       </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21" t="s">
+      <c r="G43" s="162"/>
+      <c r="H43" s="162" t="s">
         <v>525</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I43" s="162" t="s">
         <v>526</v>
       </c>
-      <c r="J43" s="21" t="s">
+      <c r="J43" s="162" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="142"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="20" t="s">
+      <c r="B44" s="150"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="157" t="s">
         <v>224</v>
       </c>
-      <c r="E44" s="152" t="s">
+      <c r="E44" s="165" t="s">
         <v>527</v>
       </c>
-      <c r="F44" s="152" t="s">
+      <c r="F44" s="165" t="s">
         <v>528</v>
       </c>
-      <c r="G44" s="152" t="s">
+      <c r="G44" s="165" t="s">
         <v>574</v>
       </c>
-      <c r="H44" s="20" t="s">
+      <c r="H44" s="157" t="s">
         <v>529</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="157" t="s">
         <v>530</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="162" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="153" t="s">
+      <c r="B45" s="166" t="s">
         <v>531</v>
       </c>
-      <c r="C45" s="154" t="s">
+      <c r="C45" s="167" t="s">
         <v>532</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="168" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="155" t="s">
+      <c r="E45" s="169" t="s">
         <v>533</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="168" t="s">
         <v>534</v>
       </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23" t="s">
+      <c r="G45" s="168" t="s">
+        <v>575</v>
+      </c>
+      <c r="H45" s="168" t="s">
         <v>535</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="I45" s="168" t="s">
         <v>536</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="J45" s="168" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="153"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="23" t="s">
+      <c r="B46" s="166"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="168" t="s">
         <v>234</v>
       </c>
-      <c r="E46" s="155" t="s">
+      <c r="E46" s="169" t="s">
         <v>537</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="168" t="s">
         <v>538</v>
       </c>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23" t="s">
+      <c r="G46" s="168"/>
+      <c r="H46" s="168" t="s">
         <v>539</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I46" s="168" t="s">
         <v>540</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="J46" s="168" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="153"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="157" t="s">
+      <c r="B47" s="166"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="171" t="s">
         <v>235</v>
       </c>
-      <c r="E47" s="158" t="s">
+      <c r="E47" s="172" t="s">
         <v>533</v>
       </c>
-      <c r="F47" s="103" t="s">
+      <c r="F47" s="173" t="s">
         <v>541</v>
       </c>
-      <c r="G47" s="57"/>
-      <c r="H47" s="101" t="s">
+      <c r="G47" s="174" t="s">
+        <v>576</v>
+      </c>
+      <c r="H47" s="175" t="s">
         <v>542</v>
       </c>
-      <c r="I47" s="23" t="s">
+      <c r="I47" s="168" t="s">
         <v>543</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="J47" s="168" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="153"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="157"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="23" t="s">
+      <c r="B48" s="166"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="177"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="168" t="s">
         <v>544</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="J48" s="168" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="161" t="s">
+      <c r="B49" s="180" t="s">
         <v>545</v>
       </c>
-      <c r="C49" s="162" t="s">
+      <c r="C49" s="181" t="s">
         <v>546</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="182" t="s">
         <v>232</v>
       </c>
-      <c r="E49" s="163" t="s">
+      <c r="E49" s="183" t="s">
         <v>456</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="182" t="s">
         <v>547</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22" t="s">
+      <c r="G49" s="182"/>
+      <c r="H49" s="182" t="s">
         <v>548</v>
       </c>
-      <c r="I49" s="22" t="s">
+      <c r="I49" s="182" t="s">
         <v>549</v>
       </c>
-      <c r="J49" s="22" t="s">
+      <c r="J49" s="182" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="161"/>
-      <c r="C50" s="164"/>
-      <c r="D50" s="22" t="s">
+      <c r="B50" s="180"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="182" t="s">
         <v>236</v>
       </c>
-      <c r="E50" s="163" t="s">
+      <c r="E50" s="183" t="s">
         <v>456</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="182" t="s">
         <v>550</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22" t="s">
+      <c r="G50" s="182"/>
+      <c r="H50" s="182" t="s">
         <v>551</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="182" t="s">
         <v>552</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="182" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="161"/>
-      <c r="C51" s="164"/>
-      <c r="D51" s="22" t="s">
+      <c r="B51" s="180"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="182" t="s">
         <v>237</v>
       </c>
-      <c r="E51" s="163" t="s">
+      <c r="E51" s="183" t="s">
         <v>456</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="182" t="s">
         <v>553</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22" t="s">
+      <c r="G51" s="182"/>
+      <c r="H51" s="182" t="s">
         <v>554</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I51" s="182" t="s">
         <v>553</v>
       </c>
-      <c r="J51" s="22" t="s">
+      <c r="J51" s="182" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="161"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="22" t="s">
+      <c r="B52" s="180"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="E52" s="163" t="s">
+      <c r="E52" s="183" t="s">
         <v>456</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="182" t="s">
         <v>555</v>
       </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22" t="s">
+      <c r="G52" s="182"/>
+      <c r="H52" s="182" t="s">
         <v>556</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="I52" s="182" t="s">
         <v>557</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="J52" s="182" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="161"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="22" t="s">
+      <c r="B53" s="180"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="182" t="s">
         <v>212</v>
       </c>
-      <c r="E53" s="163" t="s">
+      <c r="E53" s="183" t="s">
         <v>456</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="182" t="s">
         <v>558</v>
       </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22" t="s">
+      <c r="G53" s="182"/>
+      <c r="H53" s="182" t="s">
         <v>529</v>
       </c>
-      <c r="I53" s="22" t="s">
+      <c r="I53" s="182" t="s">
         <v>557</v>
       </c>
-      <c r="J53" s="22" t="s">
+      <c r="J53" s="182" t="s">
         <v>448</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="B21:B40"/>
+    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="F38:F40"/>
@@ -9640,48 +9684,14 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="H41:H42"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="B21:B40"/>
-    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
